--- a/cook-fuel-stove.xlsx
+++ b/cook-fuel-stove.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00-Bikash\01-cooking\01-analysis-files\TEA-cook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF9990B-8397-4FC1-A6A1-6CABFD591D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC71456B-871A-4FBC-9EFE-36E38B1A6ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7EBAAA4E-59CC-FC40-A9EE-7A0CED89A0F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7EBAAA4E-59CC-FC40-A9EE-7A0CED89A0F9}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -40,12 +29,134 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Vasudha</author>
     <author>tc={D6D45B34-63C1-E643-A96F-1EA2F6555628}</author>
     <author>tc={4C8744A5-6485-F34B-B795-D5CA2CF2D9AE}</author>
     <author>tc={A8EC30E5-1FB3-9A45-ADA8-1D01A5459B0F}</author>
   </authors>
   <commentList>
-    <comment ref="V5" authorId="0" shapeId="0" xr:uid="{D6D45B34-63C1-E643-A96F-1EA2F6555628}">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{225CE637-B496-4FA5-8A37-4C950533F964}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Journal of Exposure Science and Environmental Epidemiology, 2018.  the average PM2.5 concentration level near traditional cookstoves in rural India was found to be as high as 1,230 micrograms per cubic meter (µg/m³) during cooking hours.
+- World Health Organization (WHO) recommends a safe limit of 10 µg/m³ for PM2.5 concentration levels over a 24-hour period.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{B8BE05AD-AC5F-45BB-A165-2BEF7D7AB73C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+units in mg</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{CAA4970C-603B-482C-B511-C709F5B83A7E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0231757</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA3" authorId="0" shapeId="0" xr:uid="{4060FBA1-5224-45E8-851A-F242790E19F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ Environmental Science &amp; Technology in 2018, the average PM2.5 concentration levels near improved cookstoves in rural India ranged from 140 to 680 micrograms per cubic meter (µg/m³) during cooking hours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{863E8605-9083-4F04-A73A-18758BA42E81}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+According to a study published in the Journal of Environmental Management in 2020, the average PM2.5 concentration level near improved cookstoves in rural India was found to be around 165 µg/m³ during cooking hours.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V5" authorId="1" shapeId="0" xr:uid="{D6D45B34-63C1-E643-A96F-1EA2F6555628}">
       <text>
         <r>
           <rPr>
@@ -62,7 +173,106 @@
         </r>
       </text>
     </comment>
-    <comment ref="V12" authorId="1" shapeId="0" xr:uid="{4C8744A5-6485-F34B-B795-D5CA2CF2D9AE}">
+    <comment ref="AA5" authorId="0" shapeId="0" xr:uid="{DFAF0260-9C85-4C4D-AC30-38A3FB142144}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+According to a study published in the Journal of Cleaner Production in 2019, the average PM2.5 concentration level near biogas stoves in rural India was found to be around 60 µg/m³ during cooking hours.
+- Biogas stoves use a renewable fuel source that is typically composed of a mixture of methane and carbon dioxide produced from the anaerobic digestion of organic matter such as animal manure, crop residues, and kitchen waste. However, the composition of biogas can vary depending on the feedstock used and the quality of the biogas production process.
+The combustion of biogas can produce pollutants such as carbon monoxide (CO), nitrogen oxides (NOx), and particulate matter (PM), including PM2.5. Biogas stoves may have lower combustion efficiency compared to LPG stoves, which can result in higher emissions of these pollutants.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA6" authorId="0" shapeId="0" xr:uid="{2B7908CB-21BA-4FB2-9796-78B107168662}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+According to a study published in the Journal of Health and Pollution in 2017, the average PM2.5 concentration level near LPG stoves in rural India was found to be around 17 µg/m³ 
+- It is worth noting that the PM2.5 concentration levels can vary depending on various factors such as the type of LPG stove used, the quality of the LPG fuel, the ventilation in the cooking area, and the cooking duration. The specific PM2.5 concentration level near an LPG stove can vary from one location to another and from one household to another.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA7" authorId="0" shapeId="0" xr:uid="{C2B8A243-DAEB-4F2E-9004-0E06F307BBC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+According to a study published in the journal Atmospheric Pollution Research in 2018, the average PM2.5 concentration level near PNG stoves in urban households in India was found to be around 47 µg/m³ during cooking hours. This value is slightly higher than the average PM2.5 concentration level near LPG stoves in urban households in India, which was reported to be around 36 µg/m³ in a previous study from 2013. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA8" authorId="0" shapeId="0" xr:uid="{D882D192-3078-4525-BD63-C93C7F46EFFA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vasudha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+According to a study published in the journal Environmental Science and Pollution Research in 2021, the average PM2.5 concentration level near LPG stoves in urban households in India was found to be around 64 µg/m³ during cooking hours. This value is higher than the previously mentioned study from 2013, which reported an average PM2.5 concentration level of around 36 µg/m³</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V12" authorId="2" shapeId="0" xr:uid="{4C8744A5-6485-F34B-B795-D5CA2CF2D9AE}">
       <text>
         <r>
           <rPr>
@@ -79,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V19" authorId="2" shapeId="0" xr:uid="{A8EC30E5-1FB3-9A45-ADA8-1D01A5459B0F}">
+    <comment ref="V19" authorId="3" shapeId="0" xr:uid="{A8EC30E5-1FB3-9A45-ADA8-1D01A5459B0F}">
       <text>
         <r>
           <rPr>
@@ -101,7 +311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="55">
   <si>
     <t>Biogas</t>
   </si>
@@ -264,6 +474,9 @@
   <si>
     <t>annual saving</t>
   </si>
+  <si>
+    <t>Ophthalmic, respiratory, cardiovascular, dermatological symptoms /conditions and history of adverse obstetric outcomes.</t>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +487,7 @@
     <numFmt numFmtId="165" formatCode="_(&quot;₹&quot;* #,##0_);_(&quot;₹&quot;* \(#,##0\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,6 +539,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -532,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,7 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,6 +899,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1013,9 +1240,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA4CFB0-2DDE-054C-A475-43A61531E0CF}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1026,14 +1253,15 @@
     <col min="5" max="5" width="10.796875" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="15.69921875" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="11.5" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="11" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.8984375" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="2.69921875" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="17" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="15.5" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="17.296875" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="3.19921875" customWidth="1"/>
-    <col min="15" max="18" width="10.796875" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="18" width="10.796875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="11.19921875" collapsed="1"/>
     <col min="20" max="20" width="18.796875" customWidth="1" outlineLevel="1"/>
     <col min="21" max="21" width="13.69921875" customWidth="1" outlineLevel="1"/>
     <col min="22" max="22" width="18.69921875" customWidth="1" outlineLevel="1"/>
@@ -1047,7 +1275,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1155,33 +1383,34 @@
         <v>50</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="60">
-        <v>4</v>
-      </c>
-      <c r="K2" s="25">
-        <v>1</v>
-      </c>
-      <c r="L2" s="25">
+      <c r="J2" s="59">
+        <f>J9*0.95</f>
+        <v>3.61</v>
+      </c>
+      <c r="K2" s="24">
+        <v>1</v>
+      </c>
+      <c r="L2" s="60">
         <f>J2*K2</f>
-        <v>4</v>
-      </c>
-      <c r="M2" s="64">
+        <v>3.61</v>
+      </c>
+      <c r="M2" s="63">
         <f>L2*330</f>
-        <v>1320</v>
+        <v>1191.3</v>
       </c>
       <c r="O2" s="5">
         <v>1</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="21">
         <f>O2*M2</f>
-        <v>1320</v>
-      </c>
-      <c r="Q2" s="22">
+        <v>1191.3</v>
+      </c>
+      <c r="Q2" s="21">
         <v>500</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="22">
         <f>P2+Q2</f>
-        <v>1820</v>
+        <v>1691.3</v>
       </c>
       <c r="T2" s="9">
         <v>200000</v>
@@ -1192,19 +1421,27 @@
       <c r="V2" s="5">
         <v>0.4</v>
       </c>
-      <c r="W2" s="25">
+      <c r="W2" s="24">
         <f>(M2*V2)/(10^3)</f>
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="X2" s="22" t="s">
+        <v>0.47652</v>
+      </c>
+      <c r="X2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
+      <c r="AA2" s="5">
+        <f>1230</f>
+        <v>1230</v>
+      </c>
+      <c r="AB2" s="5">
+        <f>(AA2*330)/1000</f>
+        <v>405.9</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
@@ -1230,36 +1467,37 @@
         <v>750</v>
       </c>
       <c r="H3" s="9">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="60">
-        <v>3.5</v>
-      </c>
-      <c r="K3" s="25">
-        <v>1</v>
-      </c>
-      <c r="L3" s="25">
-        <f t="shared" ref="L3:L7" si="0">J3*K3</f>
-        <v>3.5</v>
-      </c>
-      <c r="M3" s="64">
-        <f t="shared" ref="M3:M22" si="1">L3*330</f>
-        <v>1155</v>
+      <c r="J3" s="59">
+        <f t="shared" ref="J3:J7" si="0">J10*0.95</f>
+        <v>3.1587499999999995</v>
+      </c>
+      <c r="K3" s="24">
+        <v>1</v>
+      </c>
+      <c r="L3" s="60">
+        <f t="shared" ref="L3:L7" si="1">J3*K3</f>
+        <v>3.1587499999999995</v>
+      </c>
+      <c r="M3" s="63">
+        <f t="shared" ref="M3:M22" si="2">L3*330</f>
+        <v>1042.3874999999998</v>
       </c>
       <c r="O3" s="5">
         <v>1</v>
       </c>
-      <c r="P3" s="22">
-        <f t="shared" ref="P3:P7" si="2">O3*M3</f>
-        <v>1155</v>
-      </c>
-      <c r="Q3" s="22">
+      <c r="P3" s="21">
+        <f t="shared" ref="P3:P7" si="3">O3*M3</f>
+        <v>1042.3874999999998</v>
+      </c>
+      <c r="Q3" s="21">
         <v>750</v>
       </c>
-      <c r="R3" s="23">
-        <f t="shared" ref="R3:R7" si="3">P3+Q3</f>
-        <v>1905</v>
+      <c r="R3" s="22">
+        <f t="shared" ref="R3:R7" si="4">P3+Q3</f>
+        <v>1792.3874999999998</v>
       </c>
       <c r="T3" s="9">
         <v>200000</v>
@@ -1270,18 +1508,24 @@
       <c r="V3" s="5">
         <v>0.4</v>
       </c>
-      <c r="W3" s="25">
-        <f t="shared" ref="W3:W7" si="4">(M3*V3)/(10^3)</f>
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="X3" s="22" t="s">
+      <c r="W3" s="24">
+        <f t="shared" ref="W3:W7" si="5">(M3*V3)/(10^3)</f>
+        <v>0.41695499999999991</v>
+      </c>
+      <c r="X3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Y3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
+      <c r="AA3" s="5">
+        <f>410</f>
+        <v>410</v>
+      </c>
+      <c r="AB3" s="5">
+        <f t="shared" ref="AB3:AB22" si="6">(AA3*330)/1000</f>
+        <v>135.30000000000001</v>
+      </c>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
     </row>
@@ -1311,33 +1555,34 @@
         <v>100</v>
       </c>
       <c r="I4" s="11"/>
-      <c r="J4" s="60">
-        <v>3.25</v>
-      </c>
-      <c r="K4" s="25">
-        <v>1</v>
-      </c>
-      <c r="L4" s="25">
+      <c r="J4" s="59">
         <f t="shared" si="0"/>
-        <v>3.25</v>
-      </c>
-      <c r="M4" s="64">
+        <v>2.933125</v>
+      </c>
+      <c r="K4" s="24">
+        <v>1</v>
+      </c>
+      <c r="L4" s="60">
         <f t="shared" si="1"/>
-        <v>1072.5</v>
+        <v>2.933125</v>
+      </c>
+      <c r="M4" s="63">
+        <f t="shared" si="2"/>
+        <v>967.93124999999998</v>
       </c>
       <c r="O4" s="5">
         <v>1</v>
       </c>
-      <c r="P4" s="22">
-        <f t="shared" si="2"/>
-        <v>1072.5</v>
-      </c>
-      <c r="Q4" s="22">
+      <c r="P4" s="21">
+        <f t="shared" si="3"/>
+        <v>967.93124999999998</v>
+      </c>
+      <c r="Q4" s="21">
         <v>1000</v>
       </c>
-      <c r="R4" s="23">
-        <f t="shared" si="3"/>
-        <v>2072.5</v>
+      <c r="R4" s="22">
+        <f t="shared" si="4"/>
+        <v>1967.9312500000001</v>
       </c>
       <c r="T4" s="9">
         <v>200000</v>
@@ -1348,19 +1593,25 @@
       <c r="V4" s="5">
         <v>0.4</v>
       </c>
-      <c r="W4" s="25">
-        <f t="shared" si="4"/>
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="X4" s="22" t="s">
+      <c r="W4" s="24">
+        <f t="shared" si="5"/>
+        <v>0.38717250000000003</v>
+      </c>
+      <c r="X4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="22" t="s">
+      <c r="Y4" s="21" t="s">
         <v>39</v>
       </c>
       <c r="Z4" s="10"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
+      <c r="AA4" s="5">
+        <f>165</f>
+        <v>165</v>
+      </c>
+      <c r="AB4" s="5">
+        <f t="shared" si="6"/>
+        <v>54.45</v>
+      </c>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
     </row>
@@ -1381,7 +1632,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G5" s="9">
         <v>40000</v>
@@ -1390,33 +1641,34 @@
         <v>500</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="61">
-        <v>3</v>
-      </c>
-      <c r="K5" s="25">
-        <v>1</v>
-      </c>
-      <c r="L5" s="25">
+      <c r="J5" s="59">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M5" s="64">
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="K5" s="24">
+        <v>1</v>
+      </c>
+      <c r="L5" s="60">
         <f t="shared" si="1"/>
-        <v>990</v>
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="M5" s="63">
+        <f t="shared" si="2"/>
+        <v>893.47499999999991</v>
       </c>
       <c r="O5" s="5">
         <v>1.5</v>
       </c>
-      <c r="P5" s="22">
-        <f t="shared" si="2"/>
-        <v>1485</v>
-      </c>
-      <c r="Q5" s="22">
+      <c r="P5" s="21">
+        <f t="shared" si="3"/>
+        <v>1340.2124999999999</v>
+      </c>
+      <c r="Q5" s="21">
         <v>1000</v>
       </c>
-      <c r="R5" s="23">
-        <f t="shared" si="3"/>
-        <v>2485</v>
+      <c r="R5" s="22">
+        <f t="shared" si="4"/>
+        <v>2340.2124999999996</v>
       </c>
       <c r="T5" s="9">
         <v>200000</v>
@@ -1424,22 +1676,27 @@
       <c r="U5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="24">
+      <c r="V5" s="23">
         <v>0.15</v>
       </c>
-      <c r="W5" s="25">
-        <f t="shared" si="4"/>
-        <v>0.14849999999999999</v>
-      </c>
-      <c r="X5" s="22" t="s">
+      <c r="W5" s="24">
+        <f t="shared" si="5"/>
+        <v>0.13402124999999998</v>
+      </c>
+      <c r="X5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Y5" s="21" t="s">
         <v>39</v>
       </c>
       <c r="Z5" s="10"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
+      <c r="AA5" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB5" s="5">
+        <f t="shared" si="6"/>
+        <v>19.8</v>
+      </c>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
     </row>
@@ -1460,7 +1717,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G6" s="9">
         <v>1000</v>
@@ -1469,33 +1726,34 @@
         <v>250</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="61">
-        <v>3</v>
-      </c>
-      <c r="K6" s="25">
-        <v>1</v>
-      </c>
-      <c r="L6" s="25">
+      <c r="J6" s="59">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M6" s="64">
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="K6" s="24">
+        <v>1</v>
+      </c>
+      <c r="L6" s="60">
         <f t="shared" si="1"/>
-        <v>990</v>
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="M6" s="63">
+        <f t="shared" si="2"/>
+        <v>893.47499999999991</v>
       </c>
       <c r="O6" s="5">
         <v>5.26</v>
       </c>
-      <c r="P6" s="22">
-        <f t="shared" si="2"/>
-        <v>5207.3999999999996</v>
-      </c>
-      <c r="Q6" s="22">
+      <c r="P6" s="21">
+        <f t="shared" si="3"/>
+        <v>4699.6784999999991</v>
+      </c>
+      <c r="Q6" s="21">
         <v>1000</v>
       </c>
-      <c r="R6" s="23">
-        <f t="shared" si="3"/>
-        <v>6207.4</v>
+      <c r="R6" s="22">
+        <f t="shared" si="4"/>
+        <v>5699.6784999999991</v>
       </c>
       <c r="T6" s="9">
         <v>200000</v>
@@ -1506,19 +1764,24 @@
       <c r="V6" s="5">
         <v>0.23</v>
       </c>
-      <c r="W6" s="25">
-        <f t="shared" si="4"/>
-        <v>0.22770000000000001</v>
-      </c>
-      <c r="X6" s="22" t="s">
+      <c r="W6" s="24">
+        <f t="shared" si="5"/>
+        <v>0.20549924999999999</v>
+      </c>
+      <c r="X6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y6" s="22" t="s">
+      <c r="Y6" s="21" t="s">
         <v>39</v>
       </c>
       <c r="Z6" s="10"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
+      <c r="AA6" s="5">
+        <v>17</v>
+      </c>
+      <c r="AB6" s="5">
+        <f t="shared" si="6"/>
+        <v>5.61</v>
+      </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
     </row>
@@ -1539,42 +1802,43 @@
         <v>10</v>
       </c>
       <c r="F7" s="8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G7" s="9">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H7" s="9">
         <v>250</v>
       </c>
       <c r="I7" s="11"/>
-      <c r="J7" s="61">
-        <v>3</v>
-      </c>
-      <c r="K7" s="25">
-        <v>1</v>
-      </c>
-      <c r="L7" s="25">
+      <c r="J7" s="59">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M7" s="64">
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="K7" s="24">
+        <v>1</v>
+      </c>
+      <c r="L7" s="60">
         <f t="shared" si="1"/>
-        <v>990</v>
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="M7" s="63">
+        <f t="shared" si="2"/>
+        <v>893.47499999999991</v>
       </c>
       <c r="O7" s="5">
         <v>5.86</v>
       </c>
-      <c r="P7" s="22">
-        <f t="shared" si="2"/>
-        <v>5801.4000000000005</v>
-      </c>
-      <c r="Q7" s="22">
+      <c r="P7" s="21">
+        <f t="shared" si="3"/>
+        <v>5235.7635</v>
+      </c>
+      <c r="Q7" s="21">
         <v>1000</v>
       </c>
-      <c r="R7" s="23">
-        <f t="shared" si="3"/>
-        <v>6801.4000000000005</v>
+      <c r="R7" s="22">
+        <f t="shared" si="4"/>
+        <v>6235.7635</v>
       </c>
       <c r="T7" s="9">
         <v>250000</v>
@@ -1585,177 +1849,194 @@
       <c r="V7" s="5">
         <v>0.2</v>
       </c>
-      <c r="W7" s="25">
-        <f t="shared" si="4"/>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="X7" s="22" t="s">
+      <c r="W7" s="24">
+        <f t="shared" si="5"/>
+        <v>0.17869499999999999</v>
+      </c>
+      <c r="X7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y7" s="22" t="s">
+      <c r="Y7" s="21" t="s">
         <v>39</v>
       </c>
       <c r="Z7" s="10"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
+      <c r="AA7" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB7" s="5">
+        <f t="shared" si="6"/>
+        <v>15.51</v>
+      </c>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
     </row>
     <row r="8" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>10</v>
       </c>
-      <c r="F8" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="G8" s="39">
+      <c r="F8" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="G8" s="38">
         <v>1000</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="38">
         <v>250</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="62">
-        <v>3</v>
-      </c>
-      <c r="K8" s="44">
-        <v>1</v>
-      </c>
-      <c r="L8" s="44">
-        <f t="shared" ref="L8" si="5">J8*K8</f>
-        <v>3</v>
-      </c>
-      <c r="M8" s="65">
-        <f t="shared" si="1"/>
-        <v>990</v>
-      </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="34">
+      <c r="I8" s="39"/>
+      <c r="J8" s="61">
+        <f>0.95*J15</f>
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="K8" s="43">
+        <v>1</v>
+      </c>
+      <c r="L8" s="61">
+        <f t="shared" ref="L8" si="7">J8*K8</f>
+        <v>2.7074999999999996</v>
+      </c>
+      <c r="M8" s="64">
+        <f t="shared" si="2"/>
+        <v>893.47499999999991</v>
+      </c>
+      <c r="N8" s="40"/>
+      <c r="O8" s="33">
         <v>5.26</v>
       </c>
-      <c r="P8" s="42">
-        <f t="shared" ref="P8" si="6">O8*M8</f>
-        <v>5207.3999999999996</v>
-      </c>
-      <c r="Q8" s="42">
+      <c r="P8" s="41">
+        <f t="shared" ref="P8" si="8">O8*M8</f>
+        <v>4699.6784999999991</v>
+      </c>
+      <c r="Q8" s="41">
         <v>1000</v>
       </c>
-      <c r="R8" s="43">
-        <f t="shared" ref="R8" si="7">P8+Q8</f>
-        <v>6207.4</v>
-      </c>
-      <c r="S8" s="41"/>
-      <c r="T8" s="39">
+      <c r="R8" s="42">
+        <f t="shared" ref="R8" si="9">P8+Q8</f>
+        <v>5699.6784999999991</v>
+      </c>
+      <c r="S8" s="40"/>
+      <c r="T8" s="38">
         <v>250000</v>
       </c>
-      <c r="U8" s="34" t="s">
+      <c r="U8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="33">
         <v>0.23</v>
       </c>
-      <c r="W8" s="44">
-        <f t="shared" ref="W8" si="8">(M8*V8)/(10^3)</f>
-        <v>0.22770000000000001</v>
-      </c>
-      <c r="X8" s="42" t="s">
+      <c r="W8" s="43">
+        <f t="shared" ref="W8" si="10">(M8*V8)/(10^3)</f>
+        <v>0.20549924999999999</v>
+      </c>
+      <c r="X8" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="42" t="s">
+      <c r="Y8" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
+      <c r="AA8" s="5">
+        <v>64</v>
+      </c>
+      <c r="AB8" s="5">
+        <f t="shared" si="6"/>
+        <v>21.12</v>
+      </c>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
     </row>
     <row r="9" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="28">
-        <v>1</v>
-      </c>
-      <c r="F9" s="29">
+      <c r="E9" s="27">
+        <v>1</v>
+      </c>
+      <c r="F9" s="28">
         <v>0.1</v>
       </c>
-      <c r="G9" s="30">
-        <v>500</v>
-      </c>
-      <c r="H9" s="30">
-        <v>50</v>
+      <c r="G9" s="29">
+        <v>600</v>
+      </c>
+      <c r="H9" s="29">
+        <v>100</v>
       </c>
       <c r="I9" s="11"/>
-      <c r="J9" s="63">
-        <v>4</v>
-      </c>
-      <c r="K9" s="33">
-        <v>1</v>
-      </c>
-      <c r="L9" s="33">
+      <c r="J9" s="62">
+        <f>0.95*J16</f>
+        <v>3.8</v>
+      </c>
+      <c r="K9" s="32">
+        <v>1</v>
+      </c>
+      <c r="L9" s="66">
         <f>J9*K9</f>
-        <v>4</v>
-      </c>
-      <c r="M9" s="66">
+        <v>3.8</v>
+      </c>
+      <c r="M9" s="65">
         <f>L9*330</f>
-        <v>1320</v>
-      </c>
-      <c r="O9" s="27">
-        <v>1</v>
-      </c>
-      <c r="P9" s="31">
+        <v>1254</v>
+      </c>
+      <c r="O9" s="26">
+        <v>1</v>
+      </c>
+      <c r="P9" s="30">
         <f>O9*M9</f>
-        <v>1320</v>
-      </c>
-      <c r="Q9" s="31">
+        <v>1254</v>
+      </c>
+      <c r="Q9" s="30">
         <v>750</v>
       </c>
-      <c r="R9" s="32">
+      <c r="R9" s="31">
         <f>P9+Q9</f>
-        <v>2070</v>
-      </c>
-      <c r="T9" s="30">
+        <v>2004</v>
+      </c>
+      <c r="T9" s="29">
         <v>570000</v>
       </c>
-      <c r="U9" s="27" t="s">
+      <c r="U9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V9" s="27">
+      <c r="V9" s="26">
         <v>0.4</v>
       </c>
-      <c r="W9" s="33">
+      <c r="W9" s="32">
         <f>(M9*V9)/(10^3)</f>
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="X9" s="31" t="s">
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="X9" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="Y9" s="31" t="s">
+      <c r="Y9" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
+      <c r="AA9" s="5">
+        <v>1230</v>
+      </c>
+      <c r="AB9" s="5">
+        <f t="shared" si="6"/>
+        <v>405.9</v>
+      </c>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
     </row>
@@ -1779,39 +2060,40 @@
         <v>0.4</v>
       </c>
       <c r="G10" s="9">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="H10" s="9">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="60">
-        <v>3.5</v>
-      </c>
-      <c r="K10" s="25">
-        <v>1</v>
-      </c>
-      <c r="L10" s="25">
-        <f t="shared" ref="L10:L15" si="9">J10*K10</f>
-        <v>3.5</v>
-      </c>
-      <c r="M10" s="64">
-        <f t="shared" si="1"/>
-        <v>1155</v>
+      <c r="J10" s="62">
+        <f t="shared" ref="J10:J14" si="11">0.95*J17</f>
+        <v>3.3249999999999997</v>
+      </c>
+      <c r="K10" s="24">
+        <v>1</v>
+      </c>
+      <c r="L10" s="60">
+        <f t="shared" ref="L10:L15" si="12">J10*K10</f>
+        <v>3.3249999999999997</v>
+      </c>
+      <c r="M10" s="63">
+        <f t="shared" si="2"/>
+        <v>1097.25</v>
       </c>
       <c r="O10" s="5">
         <v>1</v>
       </c>
-      <c r="P10" s="22">
-        <f t="shared" ref="P10:P15" si="10">O10*M10</f>
-        <v>1155</v>
-      </c>
-      <c r="Q10" s="22">
+      <c r="P10" s="21">
+        <f t="shared" ref="P10:P15" si="13">O10*M10</f>
+        <v>1097.25</v>
+      </c>
+      <c r="Q10" s="21">
         <v>1000</v>
       </c>
-      <c r="R10" s="23">
-        <f t="shared" ref="R10:R15" si="11">P10+Q10</f>
-        <v>2155</v>
+      <c r="R10" s="22">
+        <f t="shared" ref="R10:R15" si="14">P10+Q10</f>
+        <v>2097.25</v>
       </c>
       <c r="T10" s="9">
         <v>570000</v>
@@ -1822,18 +2104,23 @@
       <c r="V10" s="5">
         <v>0.4</v>
       </c>
-      <c r="W10" s="25">
-        <f t="shared" ref="W10:W15" si="12">(M10*V10)/(10^3)</f>
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="X10" s="22" t="s">
+      <c r="W10" s="24">
+        <f t="shared" ref="W10:W15" si="15">(M10*V10)/(10^3)</f>
+        <v>0.43890000000000001</v>
+      </c>
+      <c r="X10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y10" s="22" t="s">
+      <c r="Y10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
+      <c r="AA10" s="5">
+        <v>410</v>
+      </c>
+      <c r="AB10" s="5">
+        <f t="shared" si="6"/>
+        <v>135.30000000000001</v>
+      </c>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
     </row>
@@ -1860,36 +2147,37 @@
         <v>1000</v>
       </c>
       <c r="H11" s="9">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="60">
-        <v>3.25</v>
-      </c>
-      <c r="K11" s="25">
-        <v>1</v>
-      </c>
-      <c r="L11" s="25">
-        <f t="shared" si="9"/>
-        <v>3.25</v>
-      </c>
-      <c r="M11" s="64">
-        <f t="shared" si="1"/>
-        <v>1072.5</v>
+      <c r="J11" s="62">
+        <f t="shared" si="11"/>
+        <v>3.0874999999999999</v>
+      </c>
+      <c r="K11" s="24">
+        <v>1</v>
+      </c>
+      <c r="L11" s="60">
+        <f t="shared" si="12"/>
+        <v>3.0874999999999999</v>
+      </c>
+      <c r="M11" s="63">
+        <f t="shared" si="2"/>
+        <v>1018.875</v>
       </c>
       <c r="O11" s="5">
         <v>1</v>
       </c>
-      <c r="P11" s="22">
-        <f t="shared" si="10"/>
-        <v>1072.5</v>
-      </c>
-      <c r="Q11" s="22">
+      <c r="P11" s="21">
+        <f t="shared" si="13"/>
+        <v>1018.875</v>
+      </c>
+      <c r="Q11" s="21">
         <v>1250</v>
       </c>
-      <c r="R11" s="23">
-        <f t="shared" si="11"/>
-        <v>2322.5</v>
+      <c r="R11" s="22">
+        <f t="shared" si="14"/>
+        <v>2268.875</v>
       </c>
       <c r="T11" s="9">
         <v>570000</v>
@@ -1900,18 +2188,23 @@
       <c r="V11" s="5">
         <v>0.4</v>
       </c>
-      <c r="W11" s="25">
-        <f t="shared" si="12"/>
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="X11" s="22" t="s">
+      <c r="W11" s="24">
+        <f t="shared" si="15"/>
+        <v>0.40755000000000002</v>
+      </c>
+      <c r="X11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y11" s="22" t="s">
+      <c r="Y11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
+      <c r="AA11" s="5">
+        <v>165</v>
+      </c>
+      <c r="AB11" s="5">
+        <f t="shared" si="6"/>
+        <v>54.45</v>
+      </c>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
     </row>
@@ -1932,42 +2225,43 @@
         <v>10</v>
       </c>
       <c r="F12" s="8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G12" s="9">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="H12" s="9">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="11"/>
-      <c r="J12" s="61">
-        <v>3</v>
-      </c>
-      <c r="K12" s="25">
-        <v>1</v>
-      </c>
-      <c r="L12" s="25">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="M12" s="64">
-        <f t="shared" si="1"/>
-        <v>990</v>
+      <c r="J12" s="62">
+        <f t="shared" si="11"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="K12" s="24">
+        <v>1</v>
+      </c>
+      <c r="L12" s="60">
+        <f t="shared" si="12"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="M12" s="63">
+        <f t="shared" si="2"/>
+        <v>940.49999999999989</v>
       </c>
       <c r="O12" s="5">
         <v>1.5</v>
       </c>
-      <c r="P12" s="22">
-        <f t="shared" si="10"/>
-        <v>1485</v>
-      </c>
-      <c r="Q12" s="22">
+      <c r="P12" s="21">
+        <f t="shared" si="13"/>
+        <v>1410.7499999999998</v>
+      </c>
+      <c r="Q12" s="21">
         <v>1250</v>
       </c>
-      <c r="R12" s="23">
-        <f t="shared" si="11"/>
-        <v>2735</v>
+      <c r="R12" s="22">
+        <f t="shared" si="14"/>
+        <v>2660.75</v>
       </c>
       <c r="T12" s="9">
         <v>570000</v>
@@ -1975,21 +2269,26 @@
       <c r="U12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V12" s="24">
+      <c r="V12" s="23">
         <v>0.15</v>
       </c>
-      <c r="W12" s="25">
-        <f t="shared" si="12"/>
-        <v>0.14849999999999999</v>
-      </c>
-      <c r="X12" s="22" t="s">
+      <c r="W12" s="24">
+        <f t="shared" si="15"/>
+        <v>0.14107499999999998</v>
+      </c>
+      <c r="X12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y12" s="22" t="s">
+      <c r="Y12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
+      <c r="AA12" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB12" s="5">
+        <f t="shared" si="6"/>
+        <v>19.8</v>
+      </c>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
     </row>
@@ -2010,42 +2309,43 @@
         <v>10</v>
       </c>
       <c r="F13" s="8">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G13" s="9">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="H13" s="9">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I13" s="11"/>
-      <c r="J13" s="61">
-        <v>3</v>
-      </c>
-      <c r="K13" s="25">
-        <v>1</v>
-      </c>
-      <c r="L13" s="25">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="M13" s="64">
-        <f t="shared" si="1"/>
-        <v>990</v>
+      <c r="J13" s="62">
+        <f t="shared" si="11"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="K13" s="24">
+        <v>1</v>
+      </c>
+      <c r="L13" s="60">
+        <f t="shared" si="12"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="M13" s="63">
+        <f t="shared" si="2"/>
+        <v>940.49999999999989</v>
       </c>
       <c r="O13" s="5">
         <v>5.26</v>
       </c>
-      <c r="P13" s="22">
-        <f t="shared" si="10"/>
-        <v>5207.3999999999996</v>
-      </c>
-      <c r="Q13" s="22">
+      <c r="P13" s="21">
+        <f t="shared" si="13"/>
+        <v>4947.0299999999988</v>
+      </c>
+      <c r="Q13" s="21">
         <v>1250</v>
       </c>
-      <c r="R13" s="23">
-        <f t="shared" si="11"/>
-        <v>6457.4</v>
+      <c r="R13" s="22">
+        <f t="shared" si="14"/>
+        <v>6197.0299999999988</v>
       </c>
       <c r="T13" s="9">
         <v>570000</v>
@@ -2056,18 +2356,23 @@
       <c r="V13" s="5">
         <v>0.23</v>
       </c>
-      <c r="W13" s="25">
-        <f t="shared" si="12"/>
-        <v>0.22770000000000001</v>
-      </c>
-      <c r="X13" s="22" t="s">
+      <c r="W13" s="24">
+        <f t="shared" si="15"/>
+        <v>0.21631499999999998</v>
+      </c>
+      <c r="X13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y13" s="22" t="s">
+      <c r="Y13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
+      <c r="AA13" s="5">
+        <v>17</v>
+      </c>
+      <c r="AB13" s="5">
+        <f t="shared" si="6"/>
+        <v>5.61</v>
+      </c>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
     </row>
@@ -2088,42 +2393,43 @@
         <v>10</v>
       </c>
       <c r="F14" s="8">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G14" s="9">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="H14" s="9">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I14" s="11"/>
-      <c r="J14" s="61">
-        <v>3</v>
-      </c>
-      <c r="K14" s="25">
-        <v>1</v>
-      </c>
-      <c r="L14" s="25">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="M14" s="64">
-        <f t="shared" si="1"/>
-        <v>990</v>
+      <c r="J14" s="62">
+        <f t="shared" si="11"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="K14" s="24">
+        <v>1</v>
+      </c>
+      <c r="L14" s="60">
+        <f t="shared" si="12"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="M14" s="63">
+        <f t="shared" si="2"/>
+        <v>940.49999999999989</v>
       </c>
       <c r="O14" s="5">
         <v>5.86</v>
       </c>
-      <c r="P14" s="22">
-        <f t="shared" si="10"/>
-        <v>5801.4000000000005</v>
-      </c>
-      <c r="Q14" s="22">
+      <c r="P14" s="21">
+        <f t="shared" si="13"/>
+        <v>5511.33</v>
+      </c>
+      <c r="Q14" s="21">
         <v>1250</v>
       </c>
-      <c r="R14" s="23">
-        <f t="shared" si="11"/>
-        <v>7051.4000000000005</v>
+      <c r="R14" s="22">
+        <f t="shared" si="14"/>
+        <v>6761.33</v>
       </c>
       <c r="T14" s="9">
         <v>712500</v>
@@ -2134,174 +2440,190 @@
       <c r="V14" s="5">
         <v>0.2</v>
       </c>
-      <c r="W14" s="25">
-        <f t="shared" si="12"/>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="X14" s="22" t="s">
+      <c r="W14" s="24">
+        <f t="shared" si="15"/>
+        <v>0.18809999999999999</v>
+      </c>
+      <c r="X14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y14" s="22" t="s">
+      <c r="Y14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
+      <c r="AA14" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB14" s="5">
+        <f t="shared" si="6"/>
+        <v>15.51</v>
+      </c>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
     </row>
     <row r="15" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="36">
         <v>10</v>
       </c>
-      <c r="F15" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="G15" s="39">
-        <v>1000</v>
-      </c>
-      <c r="H15" s="39">
-        <v>250</v>
-      </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="62">
-        <v>3</v>
-      </c>
-      <c r="K15" s="44">
-        <v>1</v>
-      </c>
-      <c r="L15" s="44">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="M15" s="65">
-        <f t="shared" si="1"/>
-        <v>990</v>
-      </c>
-      <c r="N15" s="41"/>
-      <c r="O15" s="34">
+      <c r="F15" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="38">
+        <v>1300</v>
+      </c>
+      <c r="H15" s="38">
+        <v>500</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="61">
+        <f>0.95*J22</f>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="K15" s="43">
+        <v>1</v>
+      </c>
+      <c r="L15" s="61">
+        <f t="shared" si="12"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="M15" s="64">
+        <f t="shared" si="2"/>
+        <v>940.49999999999989</v>
+      </c>
+      <c r="N15" s="40"/>
+      <c r="O15" s="33">
         <v>5.26</v>
       </c>
-      <c r="P15" s="42">
-        <f t="shared" si="10"/>
-        <v>5207.3999999999996</v>
-      </c>
-      <c r="Q15" s="42">
+      <c r="P15" s="41">
+        <f t="shared" si="13"/>
+        <v>4947.0299999999988</v>
+      </c>
+      <c r="Q15" s="41">
         <v>1250</v>
       </c>
-      <c r="R15" s="43">
-        <f t="shared" si="11"/>
-        <v>6457.4</v>
-      </c>
-      <c r="S15" s="41"/>
-      <c r="T15" s="39">
+      <c r="R15" s="42">
+        <f t="shared" si="14"/>
+        <v>6197.0299999999988</v>
+      </c>
+      <c r="S15" s="40"/>
+      <c r="T15" s="38">
         <v>712500</v>
       </c>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34">
+      <c r="U15" s="33"/>
+      <c r="V15" s="33">
         <v>0.23</v>
       </c>
-      <c r="W15" s="44">
-        <f t="shared" si="12"/>
-        <v>0.22770000000000001</v>
-      </c>
-      <c r="X15" s="42" t="s">
+      <c r="W15" s="43">
+        <f t="shared" si="15"/>
+        <v>0.21631499999999998</v>
+      </c>
+      <c r="X15" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="Y15" s="42" t="s">
+      <c r="Y15" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
+      <c r="AA15" s="5">
+        <v>64</v>
+      </c>
+      <c r="AB15" s="5">
+        <f t="shared" si="6"/>
+        <v>21.12</v>
+      </c>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
     </row>
     <row r="16" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="28">
-        <v>1</v>
-      </c>
-      <c r="F16" s="29">
+      <c r="E16" s="27">
+        <v>1</v>
+      </c>
+      <c r="F16" s="28">
         <v>0.1</v>
       </c>
-      <c r="G16" s="30">
-        <v>500</v>
-      </c>
-      <c r="H16" s="30">
-        <v>50</v>
+      <c r="G16" s="29">
+        <v>700</v>
+      </c>
+      <c r="H16" s="29">
+        <v>200</v>
       </c>
       <c r="I16" s="11"/>
-      <c r="J16" s="63">
+      <c r="J16" s="62">
         <v>4</v>
       </c>
-      <c r="K16" s="33">
-        <v>1</v>
-      </c>
-      <c r="L16" s="33">
+      <c r="K16" s="32">
+        <v>1</v>
+      </c>
+      <c r="L16" s="66">
         <f>J16*K16</f>
         <v>4</v>
       </c>
-      <c r="M16" s="66">
+      <c r="M16" s="65">
         <f>L16*330</f>
         <v>1320</v>
       </c>
-      <c r="O16" s="27">
-        <v>1</v>
-      </c>
-      <c r="P16" s="31">
+      <c r="O16" s="26">
+        <v>1</v>
+      </c>
+      <c r="P16" s="30">
         <f>O16*M16</f>
         <v>1320</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="30">
         <v>1000</v>
       </c>
-      <c r="R16" s="32">
+      <c r="R16" s="31">
         <f>P16+Q16</f>
         <v>2320</v>
       </c>
-      <c r="T16" s="30">
+      <c r="T16" s="29">
         <v>900000</v>
       </c>
-      <c r="U16" s="27" t="s">
+      <c r="U16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V16" s="27">
+      <c r="V16" s="26">
         <v>0.4</v>
       </c>
-      <c r="W16" s="33">
+      <c r="W16" s="32">
         <f>(M16*V16)/(10^3)</f>
         <v>0.52800000000000002</v>
       </c>
-      <c r="X16" s="31" t="s">
+      <c r="X16" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="Y16" s="31" t="s">
+      <c r="Y16" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
+      <c r="AA16" s="5">
+        <v>1230</v>
+      </c>
+      <c r="AB16" s="5">
+        <f t="shared" si="6"/>
+        <v>405.9</v>
+      </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
     </row>
@@ -2325,38 +2647,38 @@
         <v>0.4</v>
       </c>
       <c r="G17" s="9">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="H17" s="9">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="I17" s="11"/>
-      <c r="J17" s="60">
+      <c r="J17" s="59">
         <v>3.5</v>
       </c>
-      <c r="K17" s="25">
-        <v>1</v>
-      </c>
-      <c r="L17" s="25">
-        <f t="shared" ref="L17:L22" si="13">J17*K17</f>
+      <c r="K17" s="24">
+        <v>1</v>
+      </c>
+      <c r="L17" s="60">
+        <f t="shared" ref="L17:L22" si="16">J17*K17</f>
         <v>3.5</v>
       </c>
-      <c r="M17" s="64">
-        <f t="shared" si="1"/>
+      <c r="M17" s="63">
+        <f t="shared" si="2"/>
         <v>1155</v>
       </c>
       <c r="O17" s="5">
         <v>1</v>
       </c>
-      <c r="P17" s="22">
-        <f t="shared" ref="P17:P22" si="14">O17*M17</f>
+      <c r="P17" s="21">
+        <f t="shared" ref="P17:P22" si="17">O17*M17</f>
         <v>1155</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q17" s="21">
         <v>1250</v>
       </c>
-      <c r="R17" s="23">
-        <f t="shared" ref="R17:R22" si="15">P17+Q17</f>
+      <c r="R17" s="22">
+        <f t="shared" ref="R17:R22" si="18">P17+Q17</f>
         <v>2405</v>
       </c>
       <c r="T17" s="9">
@@ -2368,18 +2690,23 @@
       <c r="V17" s="5">
         <v>0.4</v>
       </c>
-      <c r="W17" s="25">
-        <f t="shared" ref="W17:W22" si="16">(M17*V17)/(10^3)</f>
+      <c r="W17" s="24">
+        <f t="shared" ref="W17:W22" si="19">(M17*V17)/(10^3)</f>
         <v>0.46200000000000002</v>
       </c>
-      <c r="X17" s="22" t="s">
+      <c r="X17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" s="22" t="s">
+      <c r="Y17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
+      <c r="AA17" s="5">
+        <v>410</v>
+      </c>
+      <c r="AB17" s="5">
+        <f t="shared" si="6"/>
+        <v>135.30000000000001</v>
+      </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
     </row>
@@ -2406,35 +2733,35 @@
         <v>1000</v>
       </c>
       <c r="H18" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I18" s="11"/>
-      <c r="J18" s="60">
+      <c r="J18" s="59">
         <v>3.25</v>
       </c>
-      <c r="K18" s="25">
-        <v>1</v>
-      </c>
-      <c r="L18" s="25">
-        <f t="shared" si="13"/>
+      <c r="K18" s="24">
+        <v>1</v>
+      </c>
+      <c r="L18" s="60">
+        <f t="shared" si="16"/>
         <v>3.25</v>
       </c>
-      <c r="M18" s="64">
-        <f t="shared" si="1"/>
+      <c r="M18" s="63">
+        <f t="shared" si="2"/>
         <v>1072.5</v>
       </c>
       <c r="O18" s="5">
         <v>1</v>
       </c>
-      <c r="P18" s="22">
-        <f t="shared" si="14"/>
+      <c r="P18" s="21">
+        <f t="shared" si="17"/>
         <v>1072.5</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18" s="21">
         <v>1500</v>
       </c>
-      <c r="R18" s="23">
-        <f t="shared" si="15"/>
+      <c r="R18" s="22">
+        <f t="shared" si="18"/>
         <v>2572.5</v>
       </c>
       <c r="T18" s="9">
@@ -2446,18 +2773,23 @@
       <c r="V18" s="5">
         <v>0.4</v>
       </c>
-      <c r="W18" s="25">
-        <f t="shared" si="16"/>
+      <c r="W18" s="24">
+        <f t="shared" si="19"/>
         <v>0.42899999999999999</v>
       </c>
-      <c r="X18" s="22" t="s">
+      <c r="X18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y18" s="22" t="s">
+      <c r="Y18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
+      <c r="AA18" s="5">
+        <v>165</v>
+      </c>
+      <c r="AB18" s="5">
+        <f t="shared" si="6"/>
+        <v>54.45</v>
+      </c>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
     </row>
@@ -2478,41 +2810,41 @@
         <v>10</v>
       </c>
       <c r="F19" s="8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G19" s="9">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="H19" s="9">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="61">
+      <c r="J19" s="60">
         <v>3</v>
       </c>
-      <c r="K19" s="25">
-        <v>1</v>
-      </c>
-      <c r="L19" s="25">
-        <f t="shared" si="13"/>
+      <c r="K19" s="24">
+        <v>1</v>
+      </c>
+      <c r="L19" s="60">
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="M19" s="64">
-        <f t="shared" si="1"/>
+      <c r="M19" s="63">
+        <f t="shared" si="2"/>
         <v>990</v>
       </c>
       <c r="O19" s="5">
         <v>1.5</v>
       </c>
-      <c r="P19" s="22">
-        <f t="shared" si="14"/>
+      <c r="P19" s="21">
+        <f t="shared" si="17"/>
         <v>1485</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="21">
         <v>1500</v>
       </c>
-      <c r="R19" s="23">
-        <f t="shared" si="15"/>
+      <c r="R19" s="22">
+        <f t="shared" si="18"/>
         <v>2985</v>
       </c>
       <c r="T19" s="9">
@@ -2521,21 +2853,26 @@
       <c r="U19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="24">
+      <c r="V19" s="23">
         <v>0.15</v>
       </c>
-      <c r="W19" s="25">
-        <f t="shared" si="16"/>
+      <c r="W19" s="24">
+        <f t="shared" si="19"/>
         <v>0.14849999999999999</v>
       </c>
-      <c r="X19" s="22" t="s">
+      <c r="X19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y19" s="22" t="s">
+      <c r="Y19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
+      <c r="AA19" s="5">
+        <v>60</v>
+      </c>
+      <c r="AB19" s="5">
+        <f t="shared" si="6"/>
+        <v>19.8</v>
+      </c>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
     </row>
@@ -2559,38 +2896,38 @@
         <v>0.8</v>
       </c>
       <c r="G20" s="9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H20" s="9">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="I20" s="11"/>
-      <c r="J20" s="61">
+      <c r="J20" s="60">
         <v>3</v>
       </c>
-      <c r="K20" s="25">
-        <v>1</v>
-      </c>
-      <c r="L20" s="25">
-        <f t="shared" si="13"/>
+      <c r="K20" s="24">
+        <v>1</v>
+      </c>
+      <c r="L20" s="60">
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="M20" s="64">
-        <f t="shared" si="1"/>
+      <c r="M20" s="63">
+        <f t="shared" si="2"/>
         <v>990</v>
       </c>
       <c r="O20" s="5">
         <v>5.26</v>
       </c>
-      <c r="P20" s="22">
-        <f t="shared" si="14"/>
+      <c r="P20" s="21">
+        <f t="shared" si="17"/>
         <v>5207.3999999999996</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="Q20" s="21">
         <v>1500</v>
       </c>
-      <c r="R20" s="23">
-        <f t="shared" si="15"/>
+      <c r="R20" s="22">
+        <f t="shared" si="18"/>
         <v>6707.4</v>
       </c>
       <c r="T20" s="9">
@@ -2602,18 +2939,23 @@
       <c r="V20" s="5">
         <v>0.23</v>
       </c>
-      <c r="W20" s="25">
-        <f t="shared" si="16"/>
+      <c r="W20" s="24">
+        <f t="shared" si="19"/>
         <v>0.22770000000000001</v>
       </c>
-      <c r="X20" s="22" t="s">
+      <c r="X20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y20" s="22" t="s">
+      <c r="Y20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
+      <c r="AA20" s="5">
+        <v>17</v>
+      </c>
+      <c r="AB20" s="5">
+        <f t="shared" si="6"/>
+        <v>5.61</v>
+      </c>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
     </row>
@@ -2637,38 +2979,38 @@
         <v>0.8</v>
       </c>
       <c r="G21" s="9">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="H21" s="9">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="I21" s="11"/>
-      <c r="J21" s="61">
+      <c r="J21" s="60">
         <v>3</v>
       </c>
-      <c r="K21" s="25">
-        <v>1</v>
-      </c>
-      <c r="L21" s="25">
-        <f t="shared" si="13"/>
+      <c r="K21" s="24">
+        <v>1</v>
+      </c>
+      <c r="L21" s="60">
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="M21" s="64">
-        <f t="shared" si="1"/>
+      <c r="M21" s="63">
+        <f t="shared" si="2"/>
         <v>990</v>
       </c>
       <c r="O21" s="5">
         <v>5.86</v>
       </c>
-      <c r="P21" s="22">
-        <f t="shared" si="14"/>
+      <c r="P21" s="21">
+        <f t="shared" si="17"/>
         <v>5801.4000000000005</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q21" s="21">
         <v>1500</v>
       </c>
-      <c r="R21" s="23">
-        <f t="shared" si="15"/>
+      <c r="R21" s="22">
+        <f t="shared" si="18"/>
         <v>7301.4000000000005</v>
       </c>
       <c r="T21" s="9">
@@ -2680,98 +3022,108 @@
       <c r="V21" s="5">
         <v>0.2</v>
       </c>
-      <c r="W21" s="25">
-        <f t="shared" si="16"/>
+      <c r="W21" s="24">
+        <f t="shared" si="19"/>
         <v>0.19800000000000001</v>
       </c>
-      <c r="X21" s="22" t="s">
+      <c r="X21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y21" s="22" t="s">
+      <c r="Y21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
+      <c r="AA21" s="5">
+        <v>47</v>
+      </c>
+      <c r="AB21" s="5">
+        <f t="shared" si="6"/>
+        <v>15.51</v>
+      </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
     </row>
     <row r="22" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="36">
         <v>10</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="37">
         <v>0.8</v>
       </c>
-      <c r="G22" s="39">
-        <v>1000</v>
-      </c>
-      <c r="H22" s="39">
-        <v>250</v>
-      </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="62">
+      <c r="G22" s="38">
+        <v>2000</v>
+      </c>
+      <c r="H22" s="38">
+        <v>750</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="61">
         <v>3</v>
       </c>
-      <c r="K22" s="44">
-        <v>1</v>
-      </c>
-      <c r="L22" s="44">
-        <f t="shared" si="13"/>
+      <c r="K22" s="43">
+        <v>1</v>
+      </c>
+      <c r="L22" s="61">
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="M22" s="65">
-        <f t="shared" si="1"/>
+      <c r="M22" s="64">
+        <f t="shared" si="2"/>
         <v>990</v>
       </c>
-      <c r="N22" s="41"/>
-      <c r="O22" s="34">
+      <c r="N22" s="40"/>
+      <c r="O22" s="33">
         <v>5.26</v>
       </c>
-      <c r="P22" s="42">
-        <f t="shared" si="14"/>
+      <c r="P22" s="41">
+        <f t="shared" si="17"/>
         <v>5207.3999999999996</v>
       </c>
-      <c r="Q22" s="42">
+      <c r="Q22" s="41">
         <v>1500</v>
       </c>
-      <c r="R22" s="43">
-        <f t="shared" si="15"/>
+      <c r="R22" s="42">
+        <f t="shared" si="18"/>
         <v>6707.4</v>
       </c>
-      <c r="S22" s="41"/>
-      <c r="T22" s="39">
+      <c r="S22" s="40"/>
+      <c r="T22" s="38">
         <v>1125000</v>
       </c>
-      <c r="U22" s="34" t="s">
+      <c r="U22" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="34">
+      <c r="V22" s="33">
         <v>0.23</v>
       </c>
-      <c r="W22" s="44">
-        <f t="shared" si="16"/>
+      <c r="W22" s="43">
+        <f t="shared" si="19"/>
         <v>0.22770000000000001</v>
       </c>
-      <c r="X22" s="42" t="s">
+      <c r="X22" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="Y22" s="42" t="s">
+      <c r="Y22" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
+      <c r="AA22" s="5">
+        <v>64</v>
+      </c>
+      <c r="AB22" s="5">
+        <f t="shared" si="6"/>
+        <v>21.12</v>
+      </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
     </row>
@@ -2788,8 +3140,8 @@
   <dimension ref="A1:AD56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O46" sqref="O46"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2800,7 +3152,7 @@
     <col min="5" max="5" width="4" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="15.19921875" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="11.5" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.296875" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="17" customWidth="1" outlineLevel="1"/>
@@ -2823,7 +3175,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="67" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2905,7 +3257,7 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2921,7 +3273,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G2" s="9">
         <v>1000</v>
@@ -2957,18 +3309,18 @@
         <f>P2+Q2</f>
         <v>5119.9999999999991</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="21">
         <v>200000</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="6">
         <v>0.79</v>
       </c>
-      <c r="W2" s="26">
+      <c r="W2" s="25">
         <f>(V2*M2)/(10^3)</f>
         <v>0.72995999999999994</v>
       </c>
-      <c r="X2" s="22">
+      <c r="X2" s="21">
         <v>2000</v>
       </c>
       <c r="Y2" s="5"/>
@@ -2979,7 +3331,7 @@
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2995,7 +3347,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G3" s="9">
         <v>1500</v>
@@ -3031,18 +3383,18 @@
         <f t="shared" ref="R3:R8" si="3">P3+Q3</f>
         <v>4955.0000000000009</v>
       </c>
-      <c r="T3" s="22">
+      <c r="T3" s="21">
         <v>200000</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="6">
         <v>0.79</v>
       </c>
-      <c r="W3" s="26">
+      <c r="W3" s="25">
         <f t="shared" ref="W3:W9" si="4">(V3*M3)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
-      <c r="X3" s="22">
+      <c r="X3" s="21">
         <v>2000</v>
       </c>
       <c r="Y3" s="5"/>
@@ -3053,7 +3405,7 @@
       <c r="AD3" s="5"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3069,7 +3421,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G4" s="9">
         <v>1000</v>
@@ -3105,18 +3457,18 @@
         <f t="shared" si="3"/>
         <v>18729.999999999996</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="21">
         <v>200000</v>
       </c>
       <c r="U4" s="5"/>
-      <c r="V4" s="59">
-        <v>0</v>
-      </c>
-      <c r="W4" s="26">
+      <c r="V4" s="58">
+        <v>0</v>
+      </c>
+      <c r="W4" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X4" s="22">
+      <c r="X4" s="21">
         <v>2000</v>
       </c>
       <c r="Y4" s="5"/>
@@ -3127,7 +3479,7 @@
       <c r="AD4" s="5"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3143,7 +3495,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G5" s="9">
         <v>1500</v>
@@ -3179,18 +3531,18 @@
         <f t="shared" si="3"/>
         <v>18070.000000000004</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="21">
         <v>200000</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="6">
         <v>0</v>
       </c>
-      <c r="W5" s="26">
+      <c r="W5" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X5" s="22">
+      <c r="X5" s="21">
         <v>2000</v>
       </c>
       <c r="Y5" s="5"/>
@@ -3201,7 +3553,7 @@
       <c r="AD5" s="5"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3217,7 +3569,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G6" s="9">
         <v>15000</v>
@@ -3253,18 +3605,18 @@
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="21">
         <v>200000</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="6">
         <v>0</v>
       </c>
-      <c r="W6" s="26">
+      <c r="W6" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X6" s="22">
+      <c r="X6" s="21">
         <v>2000</v>
       </c>
       <c r="Y6" s="5"/>
@@ -3275,7 +3627,7 @@
       <c r="AD6" s="5"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3291,7 +3643,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G7" s="9">
         <v>16000</v>
@@ -3327,18 +3679,18 @@
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="21">
         <v>200000</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="6">
         <v>0</v>
       </c>
-      <c r="W7" s="26">
+      <c r="W7" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X7" s="22">
+      <c r="X7" s="21">
         <v>2000</v>
       </c>
       <c r="Y7" s="5"/>
@@ -3349,7 +3701,7 @@
       <c r="AD7" s="5"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3365,7 +3717,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G8" s="9">
         <v>15000</v>
@@ -3401,18 +3753,18 @@
         <f t="shared" si="3"/>
         <v>438.00000000000006</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="21">
         <v>200000</v>
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="6">
         <v>0</v>
       </c>
-      <c r="W8" s="26">
+      <c r="W8" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X8" s="22">
+      <c r="X8" s="21">
         <v>2000</v>
       </c>
       <c r="Y8" s="5"/>
@@ -3423,84 +3775,84 @@
       <c r="AD8" s="5"/>
     </row>
     <row r="9" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>10</v>
       </c>
-      <c r="F9" s="38">
-        <v>0.9</v>
-      </c>
-      <c r="G9" s="39">
+      <c r="F9" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="38">
         <v>16000</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="38">
         <v>100</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="34">
+      <c r="I9" s="40"/>
+      <c r="J9" s="33">
         <v>2.7</v>
       </c>
-      <c r="K9" s="18">
-        <v>1</v>
-      </c>
-      <c r="L9" s="18">
+      <c r="K9" s="17">
+        <v>1</v>
+      </c>
+      <c r="L9" s="17">
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <f t="shared" si="1"/>
         <v>891.00000000000011</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="34">
+      <c r="N9" s="40"/>
+      <c r="O9" s="33">
         <v>-0.5</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="33">
         <f>O9*M9</f>
         <v>-445.50000000000006</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="33">
         <v>900</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="33">
         <f>P9+Q9</f>
         <v>454.49999999999994</v>
       </c>
-      <c r="S9" s="41"/>
-      <c r="T9" s="42">
+      <c r="S9" s="40"/>
+      <c r="T9" s="41">
         <v>200000</v>
       </c>
-      <c r="U9" s="34"/>
-      <c r="V9" s="18">
-        <v>0</v>
-      </c>
-      <c r="W9" s="45">
+      <c r="U9" s="33"/>
+      <c r="V9" s="17">
+        <v>0</v>
+      </c>
+      <c r="W9" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X9" s="42">
+      <c r="X9" s="41">
         <v>2000</v>
       </c>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
     </row>
     <row r="10" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3516,13 +3868,14 @@
         <v>10</v>
       </c>
       <c r="F10" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G10" s="9">
-        <v>1000</v>
+        <f>G2*1.2</f>
+        <v>1200</v>
       </c>
       <c r="H10" s="9">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J10" s="5">
         <v>2.8</v>
@@ -3552,18 +3905,18 @@
         <f>P10+Q10</f>
         <v>6293.9999999999991</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="21">
         <v>570000</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="6">
         <v>0.79</v>
       </c>
-      <c r="W10" s="26">
+      <c r="W10" s="25">
         <f>(V10*M10)/(10^3)</f>
         <v>0.72995999999999994</v>
       </c>
-      <c r="X10" s="22">
+      <c r="X10" s="21">
         <v>2000</v>
       </c>
       <c r="Y10" s="5"/>
@@ -3574,7 +3927,7 @@
       <c r="AD10" s="5"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3590,13 +3943,14 @@
         <v>10</v>
       </c>
       <c r="F11" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G11" s="9">
-        <v>1500</v>
+        <f>G3*1.2</f>
+        <v>1800</v>
       </c>
       <c r="H11" s="9">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J11" s="5">
         <v>2.7</v>
@@ -3626,18 +3980,18 @@
         <f t="shared" ref="R11:R16" si="7">P11+Q11</f>
         <v>6096.0000000000009</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="21">
         <v>570000</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="6">
         <v>0.79</v>
       </c>
-      <c r="W11" s="26">
+      <c r="W11" s="25">
         <f t="shared" ref="W11:W17" si="8">(V11*M11)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
-      <c r="X11" s="22">
+      <c r="X11" s="21">
         <v>2000</v>
       </c>
       <c r="Y11" s="5"/>
@@ -3648,7 +4002,7 @@
       <c r="AD11" s="5"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3664,13 +4018,14 @@
         <v>10</v>
       </c>
       <c r="F12" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G12" s="9">
-        <v>1000</v>
+        <f t="shared" ref="G12:G16" si="9">G4*1.2</f>
+        <v>1200</v>
       </c>
       <c r="H12" s="9">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J12" s="5">
         <v>2.8</v>
@@ -3700,18 +4055,18 @@
         <f t="shared" si="7"/>
         <v>23449.999999999996</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="21">
         <v>570000</v>
       </c>
       <c r="U12" s="5"/>
       <c r="V12" s="6">
         <v>0</v>
       </c>
-      <c r="W12" s="26">
+      <c r="W12" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X12" s="22">
+      <c r="X12" s="21">
         <v>2000</v>
       </c>
       <c r="Y12" s="5"/>
@@ -3722,7 +4077,7 @@
       <c r="AD12" s="5"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3738,13 +4093,14 @@
         <v>10</v>
       </c>
       <c r="F13" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G13" s="9">
-        <v>1500</v>
+        <f t="shared" si="9"/>
+        <v>1800</v>
       </c>
       <c r="H13" s="9">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J13" s="5">
         <v>2.7</v>
@@ -3774,18 +4130,18 @@
         <f t="shared" si="7"/>
         <v>22625.000000000004</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="21">
         <v>570000</v>
       </c>
       <c r="U13" s="5"/>
       <c r="V13" s="6">
         <v>0</v>
       </c>
-      <c r="W13" s="26">
+      <c r="W13" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X13" s="22">
+      <c r="X13" s="21">
         <v>2000</v>
       </c>
       <c r="Y13" s="5"/>
@@ -3796,7 +4152,7 @@
       <c r="AD13" s="5"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3812,13 +4168,14 @@
         <v>10</v>
       </c>
       <c r="F14" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G14" s="9">
-        <v>15000</v>
+        <f t="shared" si="9"/>
+        <v>18000</v>
       </c>
       <c r="H14" s="9">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J14" s="5">
         <v>2.8</v>
@@ -3848,18 +4205,18 @@
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="21">
         <v>570000</v>
       </c>
       <c r="U14" s="5"/>
       <c r="V14" s="6">
         <v>0</v>
       </c>
-      <c r="W14" s="26">
+      <c r="W14" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X14" s="22">
+      <c r="X14" s="21">
         <v>2000</v>
       </c>
       <c r="Y14" s="5"/>
@@ -3870,7 +4227,7 @@
       <c r="AD14" s="5"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3886,13 +4243,14 @@
         <v>10</v>
       </c>
       <c r="F15" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G15" s="9">
-        <v>16000</v>
+        <f t="shared" si="9"/>
+        <v>19200</v>
       </c>
       <c r="H15" s="9">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J15" s="5">
         <v>2.7</v>
@@ -3922,18 +4280,18 @@
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="21">
         <v>570000</v>
       </c>
       <c r="U15" s="5"/>
       <c r="V15" s="6">
         <v>0</v>
       </c>
-      <c r="W15" s="26">
+      <c r="W15" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X15" s="22">
+      <c r="X15" s="21">
         <v>2000</v>
       </c>
       <c r="Y15" s="5"/>
@@ -3944,7 +4302,7 @@
       <c r="AD15" s="5"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3960,13 +4318,14 @@
         <v>10</v>
       </c>
       <c r="F16" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G16" s="9">
-        <v>15000</v>
+        <f t="shared" si="9"/>
+        <v>18000</v>
       </c>
       <c r="H16" s="9">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="J16" s="5">
         <v>2.8</v>
@@ -3996,18 +4355,18 @@
         <f t="shared" si="7"/>
         <v>769</v>
       </c>
-      <c r="T16" s="22">
+      <c r="T16" s="21">
         <v>570000</v>
       </c>
       <c r="U16" s="5"/>
       <c r="V16" s="6">
         <v>0</v>
       </c>
-      <c r="W16" s="26">
+      <c r="W16" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X16" s="22">
+      <c r="X16" s="21">
         <v>2000</v>
       </c>
       <c r="Y16" s="5"/>
@@ -4018,84 +4377,85 @@
       <c r="AD16" s="5"/>
     </row>
     <row r="17" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>10</v>
       </c>
-      <c r="F17" s="38">
-        <v>0.9</v>
-      </c>
-      <c r="G17" s="39">
-        <v>16000</v>
-      </c>
-      <c r="H17" s="39">
-        <v>100</v>
-      </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="34">
+      <c r="F17" s="37">
+        <v>0.85</v>
+      </c>
+      <c r="G17" s="38">
+        <f>G9*1.2</f>
+        <v>19200</v>
+      </c>
+      <c r="H17" s="38">
+        <v>250</v>
+      </c>
+      <c r="I17" s="40"/>
+      <c r="J17" s="33">
         <v>2.7</v>
       </c>
-      <c r="K17" s="18">
-        <v>1</v>
-      </c>
-      <c r="L17" s="18">
+      <c r="K17" s="17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="17">
         <f t="shared" si="5"/>
         <v>2.7</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="17">
         <f t="shared" si="1"/>
         <v>891.00000000000011</v>
       </c>
-      <c r="N17" s="41"/>
-      <c r="O17" s="34">
+      <c r="N17" s="40"/>
+      <c r="O17" s="33">
         <v>-0.25</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="33">
         <f>O17*M17</f>
         <v>-222.75000000000003</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="33">
         <v>1000</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="33">
         <f>P17+Q17</f>
         <v>777.25</v>
       </c>
-      <c r="S17" s="41"/>
-      <c r="T17" s="42">
+      <c r="S17" s="40"/>
+      <c r="T17" s="41">
         <v>570000</v>
       </c>
-      <c r="U17" s="34"/>
-      <c r="V17" s="18">
-        <v>0</v>
-      </c>
-      <c r="W17" s="45">
+      <c r="U17" s="33"/>
+      <c r="V17" s="17">
+        <v>0</v>
+      </c>
+      <c r="W17" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X17" s="42">
+      <c r="X17" s="41">
         <v>2000</v>
       </c>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
     </row>
     <row r="18" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4114,10 +4474,11 @@
         <v>0.9</v>
       </c>
       <c r="G18" s="9">
-        <v>1000</v>
+        <f>G10*1.2</f>
+        <v>1440</v>
       </c>
       <c r="H18" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J18" s="5">
         <v>2.8</v>
@@ -4147,18 +4508,18 @@
         <f>P18+Q18</f>
         <v>7467.9999999999991</v>
       </c>
-      <c r="T18" s="22">
+      <c r="T18" s="21">
         <v>900000</v>
       </c>
       <c r="U18" s="5"/>
       <c r="V18" s="6">
         <v>0.79</v>
       </c>
-      <c r="W18" s="26">
+      <c r="W18" s="25">
         <f>(V18*M18)/(10^3)</f>
         <v>0.72995999999999994</v>
       </c>
-      <c r="X18" s="22">
+      <c r="X18" s="21">
         <v>2000</v>
       </c>
       <c r="Y18" s="5"/>
@@ -4169,7 +4530,7 @@
       <c r="AD18" s="5"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4188,10 +4549,11 @@
         <v>0.9</v>
       </c>
       <c r="G19" s="9">
-        <v>1500</v>
+        <f>G11*1.2</f>
+        <v>2160</v>
       </c>
       <c r="H19" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J19" s="5">
         <v>2.7</v>
@@ -4200,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" ref="L19:L25" si="9">J19*K19</f>
+        <f t="shared" ref="L19:L25" si="10">J19*K19</f>
         <v>2.7</v>
       </c>
       <c r="M19" s="6">
@@ -4211,7 +4573,7 @@
         <v>7</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" ref="P19:P24" si="10">O19*M19</f>
+        <f t="shared" ref="P19:P24" si="11">O19*M19</f>
         <v>6237.0000000000009</v>
       </c>
       <c r="Q19" s="5">
@@ -4221,18 +4583,18 @@
         <f>P19+Q19</f>
         <v>7237.0000000000009</v>
       </c>
-      <c r="T19" s="22">
+      <c r="T19" s="21">
         <v>900000</v>
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="6">
         <v>0.79</v>
       </c>
-      <c r="W19" s="26">
-        <f t="shared" ref="W19:W25" si="11">(V19*M19)/(10^3)</f>
+      <c r="W19" s="25">
+        <f t="shared" ref="W19:W25" si="12">(V19*M19)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
-      <c r="X19" s="22">
+      <c r="X19" s="21">
         <v>2000</v>
       </c>
       <c r="Y19" s="5"/>
@@ -4243,7 +4605,7 @@
       <c r="AD19" s="5"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4262,10 +4624,11 @@
         <v>0.9</v>
       </c>
       <c r="G20" s="9">
-        <v>1000</v>
+        <f t="shared" ref="G20:G24" si="13">G12*1.2</f>
+        <v>1440</v>
       </c>
       <c r="H20" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J20" s="5">
         <v>2.8</v>
@@ -4274,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.8</v>
       </c>
       <c r="M20" s="6">
@@ -4285,28 +4648,28 @@
         <v>30</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>27719.999999999996</v>
       </c>
       <c r="Q20" s="5">
         <v>500</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" ref="R20:R24" si="12">P20+Q20</f>
+        <f t="shared" ref="R20:R24" si="14">P20+Q20</f>
         <v>28219.999999999996</v>
       </c>
-      <c r="T20" s="22">
+      <c r="T20" s="21">
         <v>900000</v>
       </c>
       <c r="U20" s="5"/>
       <c r="V20" s="6">
         <v>0</v>
       </c>
-      <c r="W20" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="22">
+      <c r="W20" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="21">
         <v>2000</v>
       </c>
       <c r="Y20" s="5"/>
@@ -4317,7 +4680,7 @@
       <c r="AD20" s="5"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4336,10 +4699,11 @@
         <v>0.9</v>
       </c>
       <c r="G21" s="9">
-        <v>1500</v>
+        <f t="shared" si="13"/>
+        <v>2160</v>
       </c>
       <c r="H21" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J21" s="5">
         <v>2.7</v>
@@ -4348,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.7</v>
       </c>
       <c r="M21" s="6">
@@ -4359,28 +4723,28 @@
         <v>30</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>26730.000000000004</v>
       </c>
       <c r="Q21" s="5">
         <v>500</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>27230.000000000004</v>
       </c>
-      <c r="T21" s="22">
+      <c r="T21" s="21">
         <v>900000</v>
       </c>
       <c r="U21" s="5"/>
       <c r="V21" s="6">
         <v>0</v>
       </c>
-      <c r="W21" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="22">
+      <c r="W21" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="21">
         <v>2000</v>
       </c>
       <c r="Y21" s="5"/>
@@ -4391,7 +4755,7 @@
       <c r="AD21" s="5"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4410,10 +4774,11 @@
         <v>0.9</v>
       </c>
       <c r="G22" s="9">
-        <v>15000</v>
+        <f t="shared" si="13"/>
+        <v>21600</v>
       </c>
       <c r="H22" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J22" s="5">
         <v>2.8</v>
@@ -4422,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.8</v>
       </c>
       <c r="M22" s="6">
@@ -4433,28 +4798,28 @@
         <v>0</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q22" s="5">
         <v>1000</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="21">
         <v>900000</v>
       </c>
       <c r="U22" s="5"/>
       <c r="V22" s="6">
         <v>0</v>
       </c>
-      <c r="W22" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="22">
+      <c r="W22" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="21">
         <v>2000</v>
       </c>
       <c r="Y22" s="5"/>
@@ -4465,7 +4830,7 @@
       <c r="AD22" s="5"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4484,10 +4849,11 @@
         <v>0.9</v>
       </c>
       <c r="G23" s="9">
-        <v>16000</v>
+        <f t="shared" si="13"/>
+        <v>23040</v>
       </c>
       <c r="H23" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J23" s="5">
         <v>2.7</v>
@@ -4496,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.7</v>
       </c>
       <c r="M23" s="6">
@@ -4507,28 +4873,28 @@
         <v>0</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q23" s="5">
         <v>1000</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
-      <c r="T23" s="22">
+      <c r="T23" s="21">
         <v>900000</v>
       </c>
       <c r="U23" s="5"/>
       <c r="V23" s="6">
         <v>0</v>
       </c>
-      <c r="W23" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="22">
+      <c r="W23" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="21">
         <v>2000</v>
       </c>
       <c r="Y23" s="5"/>
@@ -4539,7 +4905,7 @@
       <c r="AD23" s="5"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4558,10 +4924,11 @@
         <v>0.9</v>
       </c>
       <c r="G24" s="9">
-        <v>15000</v>
+        <f t="shared" si="13"/>
+        <v>21600</v>
       </c>
       <c r="H24" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J24" s="5">
         <v>2.8</v>
@@ -4570,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.8</v>
       </c>
       <c r="M24" s="6">
@@ -4581,28 +4948,28 @@
         <v>-0.1</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-92.399999999999991</v>
       </c>
       <c r="Q24" s="5">
         <v>1500</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1407.6</v>
       </c>
-      <c r="T24" s="22">
+      <c r="T24" s="21">
         <v>900000</v>
       </c>
       <c r="U24" s="5"/>
       <c r="V24" s="6">
         <v>0</v>
       </c>
-      <c r="W24" s="26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="22">
+      <c r="W24" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="21">
         <v>2000</v>
       </c>
       <c r="Y24" s="5"/>
@@ -4613,158 +4980,160 @@
       <c r="AD24" s="5"/>
     </row>
     <row r="25" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="50">
         <v>10</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="51">
         <v>0.9</v>
       </c>
-      <c r="G25" s="53">
-        <v>16000</v>
-      </c>
-      <c r="H25" s="53">
-        <v>100</v>
-      </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="55">
+      <c r="G25" s="52">
+        <f>G17*1.2</f>
+        <v>23040</v>
+      </c>
+      <c r="H25" s="52">
+        <v>500</v>
+      </c>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54">
         <v>2.7</v>
       </c>
-      <c r="K25" s="51">
-        <v>1</v>
-      </c>
-      <c r="L25" s="51">
-        <f t="shared" si="9"/>
+      <c r="K25" s="50">
+        <v>1</v>
+      </c>
+      <c r="L25" s="50">
+        <f t="shared" si="10"/>
         <v>2.7</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="50">
         <f t="shared" si="1"/>
         <v>891.00000000000011</v>
       </c>
-      <c r="N25" s="54"/>
-      <c r="O25" s="55">
+      <c r="N25" s="53"/>
+      <c r="O25" s="54">
         <v>-0.1</v>
       </c>
-      <c r="P25" s="55">
+      <c r="P25" s="54">
         <f>O25*M25</f>
         <v>-89.100000000000023</v>
       </c>
-      <c r="Q25" s="55">
+      <c r="Q25" s="54">
         <v>1500</v>
       </c>
-      <c r="R25" s="55">
+      <c r="R25" s="54">
         <f>P25+Q25</f>
         <v>1410.9</v>
       </c>
-      <c r="S25" s="46"/>
-      <c r="T25" s="58">
+      <c r="S25" s="45"/>
+      <c r="T25" s="57">
         <v>900000</v>
       </c>
-      <c r="U25" s="55"/>
-      <c r="V25" s="51">
-        <v>0</v>
-      </c>
-      <c r="W25" s="57">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="58">
+      <c r="U25" s="54"/>
+      <c r="V25" s="50">
+        <v>0</v>
+      </c>
+      <c r="W25" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="57">
         <v>2000</v>
       </c>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="55"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="54"/>
     </row>
     <row r="26" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <v>10</v>
       </c>
-      <c r="F26" s="29">
-        <v>0.9</v>
-      </c>
-      <c r="G26" s="30">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="30">
-        <v>100</v>
-      </c>
-      <c r="J26" s="27">
+      <c r="F26" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="G26" s="29">
+        <f>G2*110%</f>
+        <v>1100</v>
+      </c>
+      <c r="H26" s="29">
+        <v>150</v>
+      </c>
+      <c r="J26" s="26">
         <v>2.8</v>
       </c>
-      <c r="K26" s="28">
-        <v>1</v>
-      </c>
-      <c r="L26" s="28">
+      <c r="K26" s="27">
+        <v>1</v>
+      </c>
+      <c r="L26" s="27">
         <f>J26*K26</f>
         <v>2.8</v>
       </c>
-      <c r="M26" s="28">
+      <c r="M26" s="27">
         <f>L26*330</f>
         <v>923.99999999999989</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O26" s="26">
         <v>6</v>
       </c>
-      <c r="P26" s="27">
+      <c r="P26" s="26">
         <f>M26*O26</f>
         <v>5543.9999999999991</v>
       </c>
-      <c r="Q26" s="27">
+      <c r="Q26" s="26">
         <v>600</v>
       </c>
-      <c r="R26" s="27">
+      <c r="R26" s="26">
         <f>P26+Q26</f>
         <v>6143.9999999999991</v>
       </c>
-      <c r="T26" s="31">
+      <c r="T26" s="30">
         <v>250000</v>
       </c>
-      <c r="U26" s="27"/>
-      <c r="V26" s="28">
+      <c r="U26" s="26"/>
+      <c r="V26" s="27">
         <v>0.79</v>
       </c>
-      <c r="W26" s="56">
+      <c r="W26" s="55">
         <f>(V26*M26)/(10^3)</f>
         <v>0.72995999999999994</v>
       </c>
-      <c r="X26" s="31">
+      <c r="X26" s="30">
         <v>2000</v>
       </c>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4780,13 +5149,14 @@
         <v>10</v>
       </c>
       <c r="F27" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1500</v>
+        <v>0.8</v>
+      </c>
+      <c r="G27" s="29">
+        <f t="shared" ref="G27:G32" si="15">G3*110%</f>
+        <v>1650.0000000000002</v>
       </c>
       <c r="H27" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J27" s="5">
         <v>2.7</v>
@@ -4795,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" ref="L27:L33" si="13">J27*K27</f>
+        <f t="shared" ref="L27:L33" si="16">J27*K27</f>
         <v>2.7</v>
       </c>
       <c r="M27" s="6">
@@ -4805,8 +5175,8 @@
       <c r="O27" s="5">
         <v>6</v>
       </c>
-      <c r="P27" s="27">
-        <f t="shared" ref="P27:P32" si="14">M27*O27</f>
+      <c r="P27" s="26">
+        <f t="shared" ref="P27:P32" si="17">M27*O27</f>
         <v>5346.0000000000009</v>
       </c>
       <c r="Q27" s="5">
@@ -4816,18 +5186,18 @@
         <f>P27+Q27</f>
         <v>5946.0000000000009</v>
       </c>
-      <c r="T27" s="22">
+      <c r="T27" s="21">
         <v>250000</v>
       </c>
       <c r="U27" s="5"/>
       <c r="V27" s="6">
         <v>0.79</v>
       </c>
-      <c r="W27" s="26">
-        <f t="shared" ref="W27:W33" si="15">(V27*M27)/(10^3)</f>
+      <c r="W27" s="25">
+        <f t="shared" ref="W27:W33" si="18">(V27*M27)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
-      <c r="X27" s="22">
+      <c r="X27" s="21">
         <v>2000</v>
       </c>
       <c r="Y27" s="5"/>
@@ -4838,7 +5208,7 @@
       <c r="AD27" s="5"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -4854,13 +5224,14 @@
         <v>10</v>
       </c>
       <c r="F28" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G28" s="9">
-        <v>1000</v>
+        <v>0.8</v>
+      </c>
+      <c r="G28" s="29">
+        <f t="shared" si="15"/>
+        <v>1100</v>
       </c>
       <c r="H28" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J28" s="5">
         <v>2.8</v>
@@ -4869,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.8</v>
       </c>
       <c r="M28" s="6">
@@ -4879,8 +5250,8 @@
       <c r="O28" s="5">
         <v>20</v>
       </c>
-      <c r="P28" s="27">
-        <f t="shared" si="14"/>
+      <c r="P28" s="26">
+        <f t="shared" si="17"/>
         <v>18479.999999999996</v>
       </c>
       <c r="Q28" s="5">
@@ -4890,18 +5261,18 @@
         <f>P28+Q28</f>
         <v>18829.999999999996</v>
       </c>
-      <c r="T28" s="22">
+      <c r="T28" s="21">
         <v>250000</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="6">
         <v>0</v>
       </c>
-      <c r="W28" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="22">
+      <c r="W28" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="21">
         <v>2000</v>
       </c>
       <c r="Y28" s="5"/>
@@ -4912,7 +5283,7 @@
       <c r="AD28" s="5"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4928,13 +5299,14 @@
         <v>10</v>
       </c>
       <c r="F29" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G29" s="9">
-        <v>1500</v>
+        <v>0.8</v>
+      </c>
+      <c r="G29" s="29">
+        <f t="shared" si="15"/>
+        <v>1650.0000000000002</v>
       </c>
       <c r="H29" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J29" s="5">
         <v>2.7</v>
@@ -4943,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.7</v>
       </c>
       <c r="M29" s="6">
@@ -4953,8 +5325,8 @@
       <c r="O29" s="5">
         <v>20</v>
       </c>
-      <c r="P29" s="27">
-        <f t="shared" si="14"/>
+      <c r="P29" s="26">
+        <f t="shared" si="17"/>
         <v>17820.000000000004</v>
       </c>
       <c r="Q29" s="5">
@@ -4964,18 +5336,18 @@
         <f>P29+Q29</f>
         <v>18170.000000000004</v>
       </c>
-      <c r="T29" s="22">
+      <c r="T29" s="21">
         <v>250000</v>
       </c>
       <c r="U29" s="5"/>
       <c r="V29" s="6">
         <v>0</v>
       </c>
-      <c r="W29" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="22">
+      <c r="W29" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="21">
         <v>2000</v>
       </c>
       <c r="Y29" s="5"/>
@@ -4986,7 +5358,7 @@
       <c r="AD29" s="5"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -5002,13 +5374,14 @@
         <v>10</v>
       </c>
       <c r="F30" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G30" s="9">
-        <v>15000</v>
+        <v>0.8</v>
+      </c>
+      <c r="G30" s="29">
+        <f t="shared" si="15"/>
+        <v>16500</v>
       </c>
       <c r="H30" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J30" s="5">
         <v>2.8</v>
@@ -5017,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.8</v>
       </c>
       <c r="M30" s="6">
@@ -5027,29 +5400,29 @@
       <c r="O30" s="5">
         <v>0</v>
       </c>
-      <c r="P30" s="27">
-        <f t="shared" si="14"/>
+      <c r="P30" s="26">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q30" s="5">
         <v>600</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" ref="R30:R32" si="16">P30+Q30</f>
+        <f t="shared" ref="R30:R32" si="19">P30+Q30</f>
         <v>600</v>
       </c>
-      <c r="T30" s="22">
+      <c r="T30" s="21">
         <v>250000</v>
       </c>
       <c r="U30" s="5"/>
       <c r="V30" s="6">
         <v>0</v>
       </c>
-      <c r="W30" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="22">
+      <c r="W30" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="21">
         <v>2000</v>
       </c>
       <c r="Y30" s="5"/>
@@ -5060,7 +5433,7 @@
       <c r="AD30" s="5"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -5076,13 +5449,14 @@
         <v>10</v>
       </c>
       <c r="F31" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G31" s="9">
-        <v>16000</v>
+        <v>0.8</v>
+      </c>
+      <c r="G31" s="29">
+        <f t="shared" si="15"/>
+        <v>17600</v>
       </c>
       <c r="H31" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J31" s="5">
         <v>2.7</v>
@@ -5091,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.7</v>
       </c>
       <c r="M31" s="6">
@@ -5101,29 +5475,29 @@
       <c r="O31" s="5">
         <v>0</v>
       </c>
-      <c r="P31" s="27">
-        <f t="shared" si="14"/>
+      <c r="P31" s="26">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q31" s="5">
         <v>600</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>600</v>
       </c>
-      <c r="T31" s="22">
+      <c r="T31" s="21">
         <v>250000</v>
       </c>
       <c r="U31" s="5"/>
       <c r="V31" s="6">
         <v>0</v>
       </c>
-      <c r="W31" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X31" s="22">
+      <c r="W31" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="21">
         <v>2000</v>
       </c>
       <c r="Y31" s="5"/>
@@ -5134,7 +5508,7 @@
       <c r="AD31" s="5"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -5150,13 +5524,14 @@
         <v>10</v>
       </c>
       <c r="F32" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G32" s="9">
-        <v>15000</v>
+        <v>0.8</v>
+      </c>
+      <c r="G32" s="29">
+        <f t="shared" si="15"/>
+        <v>16500</v>
       </c>
       <c r="H32" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J32" s="5">
         <v>2.8</v>
@@ -5165,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.8</v>
       </c>
       <c r="M32" s="6">
@@ -5175,29 +5550,29 @@
       <c r="O32" s="5">
         <v>-0.5</v>
       </c>
-      <c r="P32" s="27">
-        <f t="shared" si="14"/>
+      <c r="P32" s="26">
+        <f t="shared" si="17"/>
         <v>-461.99999999999994</v>
       </c>
       <c r="Q32" s="5">
         <v>1000</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>538</v>
       </c>
-      <c r="T32" s="22">
+      <c r="T32" s="21">
         <v>250000</v>
       </c>
       <c r="U32" s="5"/>
       <c r="V32" s="6">
         <v>0</v>
       </c>
-      <c r="W32" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X32" s="22">
+      <c r="W32" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="21">
         <v>2000</v>
       </c>
       <c r="Y32" s="5"/>
@@ -5208,84 +5583,85 @@
       <c r="AD32" s="5"/>
     </row>
     <row r="33" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="17">
         <v>10</v>
       </c>
-      <c r="F33" s="38">
-        <v>0.9</v>
-      </c>
-      <c r="G33" s="39">
-        <v>16000</v>
-      </c>
-      <c r="H33" s="39">
-        <v>100</v>
-      </c>
-      <c r="I33" s="41"/>
-      <c r="J33" s="34">
+      <c r="F33" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="G33" s="38">
+        <f>G9*110%</f>
+        <v>17600</v>
+      </c>
+      <c r="H33" s="38">
+        <v>150</v>
+      </c>
+      <c r="I33" s="40"/>
+      <c r="J33" s="33">
         <v>2.7</v>
       </c>
-      <c r="K33" s="18">
-        <v>1</v>
-      </c>
-      <c r="L33" s="18">
-        <f t="shared" si="13"/>
+      <c r="K33" s="17">
+        <v>1</v>
+      </c>
+      <c r="L33" s="17">
+        <f t="shared" si="16"/>
         <v>2.7</v>
       </c>
-      <c r="M33" s="18">
+      <c r="M33" s="17">
         <f t="shared" si="1"/>
         <v>891.00000000000011</v>
       </c>
-      <c r="N33" s="41"/>
-      <c r="O33" s="34">
+      <c r="N33" s="40"/>
+      <c r="O33" s="33">
         <v>-0.5</v>
       </c>
-      <c r="P33" s="34">
+      <c r="P33" s="33">
         <f>O33*M33</f>
         <v>-445.50000000000006</v>
       </c>
-      <c r="Q33" s="34">
+      <c r="Q33" s="33">
         <v>1000</v>
       </c>
-      <c r="R33" s="34">
-        <f t="shared" ref="R33:R49" si="17">P33+Q33</f>
+      <c r="R33" s="33">
+        <f t="shared" ref="R33:R49" si="20">P33+Q33</f>
         <v>554.5</v>
       </c>
-      <c r="S33" s="41"/>
-      <c r="T33" s="42">
+      <c r="S33" s="40"/>
+      <c r="T33" s="41">
         <v>250000</v>
       </c>
-      <c r="U33" s="34"/>
-      <c r="V33" s="18">
-        <v>0</v>
-      </c>
-      <c r="W33" s="45">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="42">
+      <c r="U33" s="33"/>
+      <c r="V33" s="17">
+        <v>0</v>
+      </c>
+      <c r="W33" s="44">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="41">
         <v>2000</v>
       </c>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="34"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33"/>
     </row>
     <row r="34" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -5301,13 +5677,14 @@
         <v>10</v>
       </c>
       <c r="F34" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G34" s="9">
-        <v>1000</v>
+        <f>G26*1.2</f>
+        <v>1320</v>
       </c>
       <c r="H34" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J34" s="5">
         <v>2.8</v>
@@ -5334,21 +5711,21 @@
         <v>850</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7317.9999999999991</v>
       </c>
-      <c r="T34" s="22">
+      <c r="T34" s="21">
         <v>712500</v>
       </c>
       <c r="U34" s="5"/>
       <c r="V34" s="6">
         <v>0.79</v>
       </c>
-      <c r="W34" s="26">
+      <c r="W34" s="25">
         <f>(V34*M34)/(10^3)</f>
         <v>0.72995999999999994</v>
       </c>
-      <c r="X34" s="22">
+      <c r="X34" s="21">
         <v>2000</v>
       </c>
       <c r="Y34" s="5"/>
@@ -5359,7 +5736,7 @@
       <c r="AD34" s="5"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -5375,13 +5752,14 @@
         <v>10</v>
       </c>
       <c r="F35" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G35" s="9">
-        <v>1500</v>
+        <f t="shared" ref="G35:G40" si="21">G27*1.2</f>
+        <v>1980.0000000000002</v>
       </c>
       <c r="H35" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J35" s="5">
         <v>2.7</v>
@@ -5390,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" ref="L35:L41" si="18">J35*K35</f>
+        <f t="shared" ref="L35:L41" si="22">J35*K35</f>
         <v>2.7</v>
       </c>
       <c r="M35" s="6">
@@ -5401,28 +5779,28 @@
         <v>7</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" ref="P35:P40" si="19">O35*M35</f>
+        <f t="shared" ref="P35:P40" si="23">O35*M35</f>
         <v>6237.0000000000009</v>
       </c>
       <c r="Q35" s="5">
         <v>850</v>
       </c>
       <c r="R35" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7087.0000000000009</v>
       </c>
-      <c r="T35" s="22">
+      <c r="T35" s="21">
         <v>712500</v>
       </c>
       <c r="U35" s="5"/>
       <c r="V35" s="6">
         <v>0.79</v>
       </c>
-      <c r="W35" s="26">
-        <f t="shared" ref="W35:W41" si="20">(V35*M35)/(10^3)</f>
+      <c r="W35" s="25">
+        <f t="shared" ref="W35:W41" si="24">(V35*M35)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
-      <c r="X35" s="22">
+      <c r="X35" s="21">
         <v>2000</v>
       </c>
       <c r="Y35" s="5"/>
@@ -5433,7 +5811,7 @@
       <c r="AD35" s="5"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -5449,13 +5827,14 @@
         <v>10</v>
       </c>
       <c r="F36" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G36" s="9">
-        <v>1000</v>
+        <f t="shared" si="21"/>
+        <v>1320</v>
       </c>
       <c r="H36" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J36" s="5">
         <v>2.8</v>
@@ -5464,7 +5843,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.8</v>
       </c>
       <c r="M36" s="6">
@@ -5475,28 +5854,28 @@
         <v>25</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>23099.999999999996</v>
       </c>
       <c r="Q36" s="5">
         <v>450</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>23549.999999999996</v>
       </c>
-      <c r="T36" s="22">
+      <c r="T36" s="21">
         <v>712500</v>
       </c>
       <c r="U36" s="5"/>
       <c r="V36" s="6">
         <v>0</v>
       </c>
-      <c r="W36" s="26">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X36" s="22">
+      <c r="W36" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="21">
         <v>2000</v>
       </c>
       <c r="Y36" s="5"/>
@@ -5507,7 +5886,7 @@
       <c r="AD36" s="5"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -5523,13 +5902,14 @@
         <v>10</v>
       </c>
       <c r="F37" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G37" s="9">
-        <v>1500</v>
+        <f t="shared" si="21"/>
+        <v>1980.0000000000002</v>
       </c>
       <c r="H37" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J37" s="5">
         <v>2.7</v>
@@ -5538,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.7</v>
       </c>
       <c r="M37" s="6">
@@ -5549,28 +5929,28 @@
         <v>25</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>22275.000000000004</v>
       </c>
       <c r="Q37" s="5">
         <v>450</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>22725.000000000004</v>
       </c>
-      <c r="T37" s="22">
+      <c r="T37" s="21">
         <v>712500</v>
       </c>
       <c r="U37" s="5"/>
       <c r="V37" s="6">
         <v>0</v>
       </c>
-      <c r="W37" s="26">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X37" s="22">
+      <c r="W37" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="21">
         <v>2000</v>
       </c>
       <c r="Y37" s="5"/>
@@ -5581,7 +5961,7 @@
       <c r="AD37" s="5"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -5597,13 +5977,14 @@
         <v>10</v>
       </c>
       <c r="F38" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G38" s="9">
-        <v>15000</v>
+        <f t="shared" si="21"/>
+        <v>19800</v>
       </c>
       <c r="H38" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J38" s="5">
         <v>2.8</v>
@@ -5612,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.8</v>
       </c>
       <c r="M38" s="6">
@@ -5623,28 +6004,28 @@
         <v>0</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q38" s="5">
         <v>850</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>850</v>
       </c>
-      <c r="T38" s="22">
+      <c r="T38" s="21">
         <v>712500</v>
       </c>
       <c r="U38" s="5"/>
       <c r="V38" s="6">
         <v>0</v>
       </c>
-      <c r="W38" s="26">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X38" s="22">
+      <c r="W38" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="21">
         <v>2000</v>
       </c>
       <c r="Y38" s="5"/>
@@ -5655,7 +6036,7 @@
       <c r="AD38" s="5"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -5671,13 +6052,14 @@
         <v>10</v>
       </c>
       <c r="F39" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G39" s="9">
-        <v>16000</v>
+        <f t="shared" si="21"/>
+        <v>21120</v>
       </c>
       <c r="H39" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J39" s="5">
         <v>2.7</v>
@@ -5686,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.7</v>
       </c>
       <c r="M39" s="6">
@@ -5697,28 +6079,28 @@
         <v>0</v>
       </c>
       <c r="P39" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q39" s="5">
         <v>850</v>
       </c>
       <c r="R39" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>850</v>
       </c>
-      <c r="T39" s="22">
+      <c r="T39" s="21">
         <v>712500</v>
       </c>
       <c r="U39" s="5"/>
       <c r="V39" s="6">
         <v>0</v>
       </c>
-      <c r="W39" s="26">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X39" s="22">
+      <c r="W39" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="21">
         <v>2000</v>
       </c>
       <c r="Y39" s="5"/>
@@ -5729,7 +6111,7 @@
       <c r="AD39" s="5"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -5745,13 +6127,14 @@
         <v>10</v>
       </c>
       <c r="F40" s="8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G40" s="9">
-        <v>15000</v>
+        <f t="shared" si="21"/>
+        <v>19800</v>
       </c>
       <c r="H40" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J40" s="5">
         <v>2.8</v>
@@ -5760,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.8</v>
       </c>
       <c r="M40" s="6">
@@ -5771,28 +6154,28 @@
         <v>-0.25</v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-230.99999999999997</v>
       </c>
       <c r="Q40" s="5">
         <v>1250</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1019</v>
       </c>
-      <c r="T40" s="22">
+      <c r="T40" s="21">
         <v>712500</v>
       </c>
       <c r="U40" s="5"/>
       <c r="V40" s="6">
         <v>0</v>
       </c>
-      <c r="W40" s="26">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="22">
+      <c r="W40" s="25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="21">
         <v>2000</v>
       </c>
       <c r="Y40" s="5"/>
@@ -5803,84 +6186,85 @@
       <c r="AD40" s="5"/>
     </row>
     <row r="41" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="17">
         <v>10</v>
       </c>
-      <c r="F41" s="38">
-        <v>0.9</v>
-      </c>
-      <c r="G41" s="39">
-        <v>16000</v>
-      </c>
-      <c r="H41" s="39">
-        <v>100</v>
-      </c>
-      <c r="I41" s="41"/>
-      <c r="J41" s="34">
+      <c r="F41" s="37">
+        <v>0.85</v>
+      </c>
+      <c r="G41" s="38">
+        <f>G33*1.2</f>
+        <v>21120</v>
+      </c>
+      <c r="H41" s="38">
+        <v>400</v>
+      </c>
+      <c r="I41" s="40"/>
+      <c r="J41" s="33">
         <v>2.7</v>
       </c>
-      <c r="K41" s="18">
-        <v>1</v>
-      </c>
-      <c r="L41" s="18">
-        <f t="shared" si="18"/>
+      <c r="K41" s="17">
+        <v>1</v>
+      </c>
+      <c r="L41" s="17">
+        <f t="shared" si="22"/>
         <v>2.7</v>
       </c>
-      <c r="M41" s="18">
+      <c r="M41" s="17">
         <f t="shared" si="1"/>
         <v>891.00000000000011</v>
       </c>
-      <c r="N41" s="41"/>
-      <c r="O41" s="34">
+      <c r="N41" s="40"/>
+      <c r="O41" s="33">
         <v>-0.25</v>
       </c>
-      <c r="P41" s="34">
+      <c r="P41" s="33">
         <f>O41*M41</f>
         <v>-222.75000000000003</v>
       </c>
-      <c r="Q41" s="34">
+      <c r="Q41" s="33">
         <v>1250</v>
       </c>
-      <c r="R41" s="34">
-        <f t="shared" si="17"/>
+      <c r="R41" s="33">
+        <f t="shared" si="20"/>
         <v>1027.25</v>
       </c>
-      <c r="S41" s="41"/>
-      <c r="T41" s="42">
+      <c r="S41" s="40"/>
+      <c r="T41" s="41">
         <v>712500</v>
       </c>
-      <c r="U41" s="34"/>
-      <c r="V41" s="18">
-        <v>0</v>
-      </c>
-      <c r="W41" s="45">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="42">
+      <c r="U41" s="33"/>
+      <c r="V41" s="17">
+        <v>0</v>
+      </c>
+      <c r="W41" s="44">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="41">
         <v>2000</v>
       </c>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="33"/>
+      <c r="AD41" s="33"/>
     </row>
     <row r="42" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -5899,10 +6283,11 @@
         <v>0.9</v>
       </c>
       <c r="G42" s="9">
-        <v>1000</v>
+        <f>G34*1.2</f>
+        <v>1584</v>
       </c>
       <c r="H42" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J42" s="5">
         <v>2.8</v>
@@ -5929,21 +6314,21 @@
         <v>1250</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>8642</v>
       </c>
-      <c r="T42" s="22">
+      <c r="T42" s="21">
         <v>1125000</v>
       </c>
       <c r="U42" s="5"/>
       <c r="V42" s="6">
         <v>0.79</v>
       </c>
-      <c r="W42" s="26">
+      <c r="W42" s="25">
         <f>(V42*M42)/(10^3)</f>
         <v>0.72995999999999994</v>
       </c>
-      <c r="X42" s="22">
+      <c r="X42" s="21">
         <v>2000</v>
       </c>
       <c r="Y42" s="5"/>
@@ -5954,7 +6339,7 @@
       <c r="AD42" s="5"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -5973,10 +6358,11 @@
         <v>0.9</v>
       </c>
       <c r="G43" s="9">
-        <v>1500</v>
+        <f t="shared" ref="G43:G48" si="25">G35*1.2</f>
+        <v>2376</v>
       </c>
       <c r="H43" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J43" s="5">
         <v>2.7</v>
@@ -5985,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" ref="L43:L49" si="21">J43*K43</f>
+        <f t="shared" ref="L43:L49" si="26">J43*K43</f>
         <v>2.7</v>
       </c>
       <c r="M43" s="6">
@@ -5996,28 +6382,28 @@
         <v>8</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" ref="P43:P48" si="22">O43*M43</f>
+        <f t="shared" ref="P43:P48" si="27">O43*M43</f>
         <v>7128.0000000000009</v>
       </c>
       <c r="Q43" s="5">
         <v>1250</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>8378</v>
       </c>
-      <c r="T43" s="22">
+      <c r="T43" s="21">
         <v>1125000</v>
       </c>
       <c r="U43" s="5"/>
       <c r="V43" s="6">
         <v>0.79</v>
       </c>
-      <c r="W43" s="26">
-        <f t="shared" ref="W43:W49" si="23">(V43*M43)/(10^3)</f>
+      <c r="W43" s="25">
+        <f t="shared" ref="W43:W49" si="28">(V43*M43)/(10^3)</f>
         <v>0.70389000000000013</v>
       </c>
-      <c r="X43" s="22">
+      <c r="X43" s="21">
         <v>2000</v>
       </c>
       <c r="Y43" s="5"/>
@@ -6028,7 +6414,7 @@
       <c r="AD43" s="5"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -6047,10 +6433,11 @@
         <v>0.9</v>
       </c>
       <c r="G44" s="9">
-        <v>1000</v>
+        <f t="shared" si="25"/>
+        <v>1584</v>
       </c>
       <c r="H44" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J44" s="5">
         <v>2.8</v>
@@ -6059,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>2.8</v>
       </c>
       <c r="M44" s="6">
@@ -6070,28 +6457,28 @@
         <v>50</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>46199.999999999993</v>
       </c>
       <c r="Q44" s="5">
         <v>750</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>46949.999999999993</v>
       </c>
-      <c r="T44" s="22">
+      <c r="T44" s="21">
         <v>1125000</v>
       </c>
       <c r="U44" s="5"/>
       <c r="V44" s="6">
         <v>0</v>
       </c>
-      <c r="W44" s="26">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="22">
+      <c r="W44" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="21">
         <v>2000</v>
       </c>
       <c r="Y44" s="5"/>
@@ -6102,7 +6489,7 @@
       <c r="AD44" s="5"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -6121,10 +6508,11 @@
         <v>0.9</v>
       </c>
       <c r="G45" s="9">
-        <v>1500</v>
+        <f t="shared" si="25"/>
+        <v>2376</v>
       </c>
       <c r="H45" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J45" s="5">
         <v>2.7</v>
@@ -6133,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>2.7</v>
       </c>
       <c r="M45" s="6">
@@ -6144,28 +6532,28 @@
         <v>50</v>
       </c>
       <c r="P45" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>44550.000000000007</v>
       </c>
       <c r="Q45" s="5">
         <v>750</v>
       </c>
       <c r="R45" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45300.000000000007</v>
       </c>
-      <c r="T45" s="22">
+      <c r="T45" s="21">
         <v>1125000</v>
       </c>
       <c r="U45" s="5"/>
       <c r="V45" s="6">
         <v>0</v>
       </c>
-      <c r="W45" s="26">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="X45" s="22">
+      <c r="W45" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="21">
         <v>2000</v>
       </c>
       <c r="Y45" s="5"/>
@@ -6176,7 +6564,7 @@
       <c r="AD45" s="5"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -6195,10 +6583,11 @@
         <v>0.9</v>
       </c>
       <c r="G46" s="9">
-        <v>15000</v>
+        <f t="shared" si="25"/>
+        <v>23760</v>
       </c>
       <c r="H46" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J46" s="5">
         <v>2.8</v>
@@ -6207,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>2.8</v>
       </c>
       <c r="M46" s="6">
@@ -6218,28 +6607,28 @@
         <v>0</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q46" s="5">
         <v>1250</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1250</v>
       </c>
-      <c r="T46" s="22">
+      <c r="T46" s="21">
         <v>1125000</v>
       </c>
       <c r="U46" s="5"/>
       <c r="V46" s="6">
         <v>0</v>
       </c>
-      <c r="W46" s="26">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="X46" s="22">
+      <c r="W46" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="21">
         <v>2000</v>
       </c>
       <c r="Y46" s="5"/>
@@ -6250,7 +6639,7 @@
       <c r="AD46" s="5"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -6269,10 +6658,11 @@
         <v>0.9</v>
       </c>
       <c r="G47" s="9">
-        <v>16000</v>
+        <f t="shared" si="25"/>
+        <v>25344</v>
       </c>
       <c r="H47" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J47" s="5">
         <v>2.7</v>
@@ -6281,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>2.7</v>
       </c>
       <c r="M47" s="6">
@@ -6292,28 +6682,28 @@
         <v>0</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q47" s="5">
         <v>1250</v>
       </c>
       <c r="R47" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1250</v>
       </c>
-      <c r="T47" s="22">
+      <c r="T47" s="21">
         <v>1125000</v>
       </c>
       <c r="U47" s="5"/>
       <c r="V47" s="6">
         <v>0</v>
       </c>
-      <c r="W47" s="26">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="X47" s="22">
+      <c r="W47" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="21">
         <v>2000</v>
       </c>
       <c r="Y47" s="5"/>
@@ -6324,7 +6714,7 @@
       <c r="AD47" s="5"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -6343,10 +6733,11 @@
         <v>0.9</v>
       </c>
       <c r="G48" s="9">
-        <v>15000</v>
+        <f t="shared" si="25"/>
+        <v>23760</v>
       </c>
       <c r="H48" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J48" s="5">
         <v>2.8</v>
@@ -6355,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>2.8</v>
       </c>
       <c r="M48" s="6">
@@ -6366,28 +6757,28 @@
         <v>-0.1</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-92.399999999999991</v>
       </c>
       <c r="Q48" s="5">
         <v>1500</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1407.6</v>
       </c>
-      <c r="T48" s="22">
+      <c r="T48" s="21">
         <v>1125000</v>
       </c>
       <c r="U48" s="5"/>
       <c r="V48" s="6">
         <v>0</v>
       </c>
-      <c r="W48" s="26">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="X48" s="22">
+      <c r="W48" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="21">
         <v>2000</v>
       </c>
       <c r="Y48" s="5"/>
@@ -6398,81 +6789,82 @@
       <c r="AD48" s="5"/>
     </row>
     <row r="49" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="17">
         <v>10</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="37">
         <v>0.9</v>
       </c>
-      <c r="G49" s="39">
-        <v>16000</v>
-      </c>
-      <c r="H49" s="39">
-        <v>100</v>
-      </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="34">
+      <c r="G49" s="38">
+        <f>G41*1.2</f>
+        <v>25344</v>
+      </c>
+      <c r="H49" s="38">
+        <v>800</v>
+      </c>
+      <c r="I49" s="40"/>
+      <c r="J49" s="33">
         <v>2.7</v>
       </c>
-      <c r="K49" s="18">
-        <v>1</v>
-      </c>
-      <c r="L49" s="18">
-        <f t="shared" si="21"/>
+      <c r="K49" s="17">
+        <v>1</v>
+      </c>
+      <c r="L49" s="17">
+        <f t="shared" si="26"/>
         <v>2.7</v>
       </c>
-      <c r="M49" s="18">
+      <c r="M49" s="17">
         <f t="shared" si="1"/>
         <v>891.00000000000011</v>
       </c>
-      <c r="N49" s="41"/>
-      <c r="O49" s="34">
+      <c r="N49" s="40"/>
+      <c r="O49" s="33">
         <v>-0.1</v>
       </c>
-      <c r="P49" s="34">
+      <c r="P49" s="33">
         <f>O49*M49</f>
         <v>-89.100000000000023</v>
       </c>
-      <c r="Q49" s="34">
+      <c r="Q49" s="33">
         <v>1500</v>
       </c>
-      <c r="R49" s="34">
-        <f t="shared" si="17"/>
+      <c r="R49" s="33">
+        <f t="shared" si="20"/>
         <v>1410.9</v>
       </c>
-      <c r="S49" s="41"/>
-      <c r="T49" s="42">
+      <c r="S49" s="40"/>
+      <c r="T49" s="41">
         <v>1125000</v>
       </c>
-      <c r="U49" s="34"/>
-      <c r="V49" s="18">
-        <v>0</v>
-      </c>
-      <c r="W49" s="45">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="X49" s="42">
+      <c r="U49" s="33"/>
+      <c r="V49" s="17">
+        <v>0</v>
+      </c>
+      <c r="W49" s="44">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="41">
         <v>2000</v>
       </c>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="34"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="33"/>
     </row>
     <row r="50" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:30" x14ac:dyDescent="0.3">
@@ -6497,379 +6889,379 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B775FE-89E7-DE49-9FC4-5A387DAB3702}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19">
         <f>A2+B2</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20">
         <f t="shared" ref="C3:C31" si="0">A3+B3</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20">
         <v>2</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
-        <v>1</v>
-      </c>
-      <c r="B5" s="21">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20">
         <v>3</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
-        <v>1</v>
-      </c>
-      <c r="B6" s="21">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20">
         <v>4</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19">
-        <v>1</v>
-      </c>
-      <c r="B7" s="19">
+      <c r="A7" s="18">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
         <v>5</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>2</v>
       </c>
-      <c r="B8" s="17">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>2</v>
       </c>
-      <c r="B9" s="17">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B9" s="16">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>2</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>2</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>3</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>2</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>4</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>2</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>5</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>3</v>
       </c>
-      <c r="B14" s="17">
-        <v>0</v>
-      </c>
-      <c r="C14" s="17">
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>3</v>
       </c>
-      <c r="B15" s="17">
-        <v>1</v>
-      </c>
-      <c r="C15" s="17">
+      <c r="B15" s="16">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>3</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>2</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>3</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>3</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>3</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>4</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>3</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>5</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>4</v>
       </c>
-      <c r="B20" s="17">
-        <v>0</v>
-      </c>
-      <c r="C20" s="17">
+      <c r="B20" s="16">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>4</v>
       </c>
-      <c r="B21" s="17">
-        <v>1</v>
-      </c>
-      <c r="C21" s="17">
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>4</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>2</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <v>4</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>3</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <v>4</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>4</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>4</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <v>5</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+      <c r="A26" s="16">
         <v>5</v>
       </c>
-      <c r="B26" s="17">
-        <v>0</v>
-      </c>
-      <c r="C26" s="17">
+      <c r="B26" s="16">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+      <c r="A27" s="16">
         <v>5</v>
       </c>
-      <c r="B27" s="17">
-        <v>1</v>
-      </c>
-      <c r="C27" s="17">
+      <c r="B27" s="16">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
+      <c r="A28" s="16">
         <v>5</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <v>2</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+      <c r="A29" s="16">
         <v>5</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="16">
         <v>3</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
+      <c r="A30" s="16">
         <v>5</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="16">
         <v>4</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>5</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <v>5</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>

--- a/cook-fuel-stove.xlsx
+++ b/cook-fuel-stove.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00-Bikash\01-cooking\01-analysis-files\TEA-cook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bikash/My Drive (bikash@vasudhaindia.org)/01-cooking/01-analysis-files/TEA-cook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC71456B-871A-4FBC-9EFE-36E38B1A6ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F0EEF4-63FA-AF48-A4F9-203C9EB1070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7EBAAA4E-59CC-FC40-A9EE-7A0CED89A0F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7EBAAA4E-59CC-FC40-A9EE-7A0CED89A0F9}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -41,22 +52,40 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Vasudha:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-- Journal of Exposure Science and Environmental Epidemiology, 2018.  the average PM2.5 concentration level near traditional cookstoves in rural India was found to be as high as 1,230 micrograms per cubic meter (µg/m³) during cooking hours.
-- World Health Organization (WHO) recommends a safe limit of 10 µg/m³ for PM2.5 concentration levels over a 24-hour period.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Journal of Exposure Science and Environmental Epidemiology, 2018.  the average PM2.5 concentration level near traditional cookstoves in rural India was found to be as high as 1,230 micrograms per cubic meter (µg/m³) during cooking hours.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- World Health Organization (WHO) recommends a safe limit of 10 µg/m³ for PM2.5 concentration levels over a 24-hour period.</t>
         </r>
       </text>
     </comment>
@@ -66,21 +95,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Vasudha:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-units in mg</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>units in mg</t>
         </r>
       </text>
     </comment>
@@ -90,21 +128,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Vasudha:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0231757</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0231757</t>
         </r>
       </text>
     </comment>
@@ -114,21 +161,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Vasudha:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
- Environmental Science &amp; Technology in 2018, the average PM2.5 concentration levels near improved cookstoves in rural India ranged from 140 to 680 micrograms per cubic meter (µg/m³) during cooking hours</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Environmental Science &amp; Technology in 2018, the average PM2.5 concentration levels near improved cookstoves in rural India ranged from 140 to 680 micrograms per cubic meter (µg/m³) during cooking hours</t>
         </r>
       </text>
     </comment>
@@ -138,39 +194,39 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Vasudha:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-According to a study published in the Journal of Environmental Management in 2020, the average PM2.5 concentration level near improved cookstoves in rural India was found to be around 165 µg/m³ during cooking hours.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>According to a study published in the Journal of Environmental Management in 2020, the average PM2.5 concentration level near improved cookstoves in rural India was found to be around 165 µg/m³ during cooking hours.</t>
         </r>
       </text>
     </comment>
     <comment ref="V5" authorId="1" shapeId="0" xr:uid="{D6D45B34-63C1-E643-A96F-1EA2F6555628}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Check the emission factor</t>
-        </r>
       </text>
     </comment>
     <comment ref="AA5" authorId="0" shapeId="0" xr:uid="{DFAF0260-9C85-4C4D-AC30-38A3FB142144}">
@@ -179,23 +235,60 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Vasudha:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-According to a study published in the Journal of Cleaner Production in 2019, the average PM2.5 concentration level near biogas stoves in rural India was found to be around 60 µg/m³ during cooking hours.
-- Biogas stoves use a renewable fuel source that is typically composed of a mixture of methane and carbon dioxide produced from the anaerobic digestion of organic matter such as animal manure, crop residues, and kitchen waste. However, the composition of biogas can vary depending on the feedstock used and the quality of the biogas production process.
-The combustion of biogas can produce pollutants such as carbon monoxide (CO), nitrogen oxides (NOx), and particulate matter (PM), including PM2.5. Biogas stoves may have lower combustion efficiency compared to LPG stoves, which can result in higher emissions of these pollutants.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">According to a study published in the Journal of Cleaner Production in 2019, the average PM2.5 concentration level near biogas stoves in rural India was found to be around 60 µg/m³ during cooking hours.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Biogas stoves use a renewable fuel source that is typically composed of a mixture of methane and carbon dioxide produced from the anaerobic digestion of organic matter such as animal manure, crop residues, and kitchen waste. However, the composition of biogas can vary depending on the feedstock used and the quality of the biogas production process.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The combustion of biogas can produce pollutants such as carbon monoxide (CO), nitrogen oxides (NOx), and particulate matter (PM), including PM2.5. Biogas stoves may have lower combustion efficiency compared to LPG stoves, which can result in higher emissions of these pollutants.</t>
         </r>
       </text>
     </comment>
@@ -205,22 +298,40 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Vasudha:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-According to a study published in the Journal of Health and Pollution in 2017, the average PM2.5 concentration level near LPG stoves in rural India was found to be around 17 µg/m³ 
-- It is worth noting that the PM2.5 concentration levels can vary depending on various factors such as the type of LPG stove used, the quality of the LPG fuel, the ventilation in the cooking area, and the cooking duration. The specific PM2.5 concentration level near an LPG stove can vary from one location to another and from one household to another.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">According to a study published in the Journal of Health and Pollution in 2017, the average PM2.5 concentration level near LPG stoves in rural India was found to be around 17 µg/m³ 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- It is worth noting that the PM2.5 concentration levels can vary depending on various factors such as the type of LPG stove used, the quality of the LPG fuel, the ventilation in the cooking area, and the cooking duration. The specific PM2.5 concentration level near an LPG stove can vary from one location to another and from one household to another.</t>
         </r>
       </text>
     </comment>
@@ -230,21 +341,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Vasudha:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-According to a study published in the journal Atmospheric Pollution Research in 2018, the average PM2.5 concentration level near PNG stoves in urban households in India was found to be around 47 µg/m³ during cooking hours. This value is slightly higher than the average PM2.5 concentration level near LPG stoves in urban households in India, which was reported to be around 36 µg/m³ in a previous study from 2013. </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">According to a study published in the journal Atmospheric Pollution Research in 2018, the average PM2.5 concentration level near PNG stoves in urban households in India was found to be around 47 µg/m³ during cooking hours. This value is slightly higher than the average PM2.5 concentration level near LPG stoves in urban households in India, which was reported to be around 36 µg/m³ in a previous study from 2013. </t>
         </r>
       </text>
     </comment>
@@ -254,56 +374,47 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Vasudha:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-According to a study published in the journal Environmental Science and Pollution Research in 2021, the average PM2.5 concentration level near LPG stoves in urban households in India was found to be around 64 µg/m³ during cooking hours. This value is higher than the previously mentioned study from 2013, which reported an average PM2.5 concentration level of around 36 µg/m³</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>According to a study published in the journal Environmental Science and Pollution Research in 2021, the average PM2.5 concentration level near LPG stoves in urban households in India was found to be around 64 µg/m³ during cooking hours. This value is higher than the previously mentioned study from 2013, which reported an average PM2.5 concentration level of around 36 µg/m³</t>
         </r>
       </text>
     </comment>
     <comment ref="V12" authorId="2" shapeId="0" xr:uid="{4C8744A5-6485-F34B-B795-D5CA2CF2D9AE}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Check the emission factor</t>
-        </r>
       </text>
     </comment>
     <comment ref="V19" authorId="3" shapeId="0" xr:uid="{A8EC30E5-1FB3-9A45-ADA8-1D01A5459B0F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Check the emission factor</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -483,9 +594,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;₹&quot;* #,##0_);_(&quot;₹&quot;* \(#,##0\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;₹&quot;* #,##0_);_(&quot;₹&quot;* \(#,##0\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -541,17 +652,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -756,7 +867,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -782,11 +893,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -812,8 +923,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -826,11 +937,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -845,15 +956,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -877,7 +988,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -888,18 +999,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1241,40 +1352,40 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC6" sqref="AC6"/>
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="30.796875" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="11.5" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.8984375" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="2.69921875" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="17" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="15.5" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="17.296875" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="3.19921875" customWidth="1"/>
-    <col min="15" max="18" width="10.796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="11.19921875" collapsed="1"/>
-    <col min="20" max="20" width="18.796875" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="13.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="18.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="27.796875" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="3.1640625" customWidth="1"/>
+    <col min="15" max="18" width="10.83203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="11.1640625" collapsed="1"/>
+    <col min="20" max="20" width="18.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="18.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="27.83203125" customWidth="1" outlineLevel="1"/>
     <col min="24" max="24" width="26" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="22.5" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="17.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="17.1640625" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="18.5" customWidth="1" outlineLevel="1"/>
     <col min="29" max="29" width="13" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="17.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="17.1640625" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
@@ -1357,7 +1468,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
@@ -1444,7 +1555,7 @@
       </c>
       <c r="AD2" s="5"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>41</v>
       </c>
@@ -1529,7 +1640,7 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -1615,7 +1726,7 @@
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -1700,7 +1811,7 @@
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -1776,6 +1887,7 @@
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="5">
+        <f>17</f>
         <v>17</v>
       </c>
       <c r="AB6" s="5">
@@ -1785,7 +1897,7 @@
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
@@ -1861,6 +1973,7 @@
       </c>
       <c r="Z7" s="10"/>
       <c r="AA7" s="5">
+        <f>47</f>
         <v>47</v>
       </c>
       <c r="AB7" s="5">
@@ -1870,7 +1983,7 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
     </row>
-    <row r="8" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>42</v>
       </c>
@@ -1947,6 +2060,7 @@
         <v>39</v>
       </c>
       <c r="AA8" s="5">
+        <f>64</f>
         <v>64</v>
       </c>
       <c r="AB8" s="5">
@@ -1956,7 +2070,7 @@
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
     </row>
-    <row r="9" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>41</v>
       </c>
@@ -2040,7 +2154,7 @@
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -2124,7 +2238,7 @@
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -2208,7 +2322,7 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -2292,7 +2406,7 @@
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -2376,7 +2490,7 @@
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -2460,7 +2574,7 @@
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
     </row>
-    <row r="15" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>42</v>
       </c>
@@ -2544,7 +2658,7 @@
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
     </row>
-    <row r="16" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>41</v>
       </c>
@@ -2627,7 +2741,7 @@
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -2710,7 +2824,7 @@
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -2793,7 +2907,7 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
@@ -2876,7 +2990,7 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -2959,7 +3073,7 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -3042,7 +3156,7 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
     </row>
-    <row r="22" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>42</v>
       </c>
@@ -3127,7 +3241,7 @@
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3144,37 +3258,37 @@
       <selection pane="topRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.796875" customWidth="1"/>
-    <col min="4" max="4" width="18.69921875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="11.5" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.296875" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="17" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="15.5" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="17.296875" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="3.19921875" customWidth="1"/>
-    <col min="15" max="18" width="10.796875" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="2.69921875" customWidth="1"/>
-    <col min="20" max="20" width="18.796875" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="13.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="18.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="27.796875" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="3.1640625" customWidth="1"/>
+    <col min="15" max="18" width="10.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="2.6640625" customWidth="1"/>
+    <col min="20" max="20" width="18.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="18.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="27.83203125" customWidth="1" outlineLevel="1"/>
     <col min="24" max="24" width="26" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="22.5" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="3.5" customWidth="1"/>
-    <col min="27" max="27" width="17.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="17.1640625" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="18.5" customWidth="1" outlineLevel="1"/>
     <col min="29" max="29" width="13" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="17.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="17.1640625" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
         <v>40</v>
       </c>
@@ -3256,7 +3370,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
@@ -3330,7 +3444,7 @@
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>41</v>
       </c>
@@ -3404,7 +3518,7 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -3478,7 +3592,7 @@
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -3552,7 +3666,7 @@
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -3626,7 +3740,7 @@
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
@@ -3700,7 +3814,7 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -3774,7 +3888,7 @@
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
     </row>
-    <row r="9" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -3851,7 +3965,7 @@
       <c r="AC9" s="33"/>
       <c r="AD9" s="33"/>
     </row>
-    <row r="10" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -3926,7 +4040,7 @@
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -4001,7 +4115,7 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -4076,7 +4190,7 @@
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -4151,7 +4265,7 @@
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
@@ -4226,7 +4340,7 @@
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
@@ -4301,7 +4415,7 @@
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
@@ -4376,7 +4490,7 @@
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
     </row>
-    <row r="17" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -4454,7 +4568,7 @@
       <c r="AC17" s="33"/>
       <c r="AD17" s="33"/>
     </row>
-    <row r="18" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -4529,7 +4643,7 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
@@ -4604,7 +4718,7 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -4679,7 +4793,7 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
@@ -4754,7 +4868,7 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
@@ -4829,7 +4943,7 @@
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
@@ -4904,7 +5018,7 @@
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>41</v>
       </c>
@@ -4979,7 +5093,7 @@
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
     </row>
-    <row r="25" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>41</v>
       </c>
@@ -5057,7 +5171,7 @@
       <c r="AC25" s="54"/>
       <c r="AD25" s="54"/>
     </row>
-    <row r="26" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
@@ -5132,7 +5246,7 @@
       <c r="AC26" s="26"/>
       <c r="AD26" s="26"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
@@ -5207,7 +5321,7 @@
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
@@ -5282,7 +5396,7 @@
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
@@ -5357,7 +5471,7 @@
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
@@ -5432,7 +5546,7 @@
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>42</v>
       </c>
@@ -5507,7 +5621,7 @@
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
@@ -5582,7 +5696,7 @@
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
     </row>
-    <row r="33" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
@@ -5660,7 +5774,7 @@
       <c r="AC33" s="33"/>
       <c r="AD33" s="33"/>
     </row>
-    <row r="34" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>42</v>
       </c>
@@ -5735,7 +5849,7 @@
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
@@ -5810,7 +5924,7 @@
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>42</v>
       </c>
@@ -5885,7 +5999,7 @@
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>42</v>
       </c>
@@ -5960,7 +6074,7 @@
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
@@ -6035,7 +6149,7 @@
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>42</v>
       </c>
@@ -6110,7 +6224,7 @@
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
@@ -6185,7 +6299,7 @@
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
     </row>
-    <row r="41" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
@@ -6263,7 +6377,7 @@
       <c r="AC41" s="33"/>
       <c r="AD41" s="33"/>
     </row>
-    <row r="42" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
@@ -6338,7 +6452,7 @@
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
@@ -6413,7 +6527,7 @@
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -6488,7 +6602,7 @@
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>42</v>
       </c>
@@ -6563,7 +6677,7 @@
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
@@ -6638,7 +6752,7 @@
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>42</v>
       </c>
@@ -6713,7 +6827,7 @@
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>42</v>
       </c>
@@ -6788,7 +6902,7 @@
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
     </row>
-    <row r="49" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>42</v>
       </c>
@@ -6866,8 +6980,8 @@
       <c r="AC49" s="33"/>
       <c r="AD49" s="33"/>
     </row>
-    <row r="50" spans="1:30" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="T55" t="s">
         <v>51</v>
       </c>
@@ -6875,7 +6989,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="U56" t="s">
         <v>53</v>
       </c>
@@ -6893,9 +7007,9 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
@@ -6906,7 +7020,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -6918,7 +7032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -6930,7 +7044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -6942,7 +7056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -6954,7 +7068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -6966,7 +7080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>1</v>
       </c>
@@ -6978,7 +7092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>2</v>
       </c>
@@ -6990,7 +7104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>2</v>
       </c>
@@ -7002,7 +7116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -7014,7 +7128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>2</v>
       </c>
@@ -7026,7 +7140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>2</v>
       </c>
@@ -7038,7 +7152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>2</v>
       </c>
@@ -7050,7 +7164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>3</v>
       </c>
@@ -7062,7 +7176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>3</v>
       </c>
@@ -7074,7 +7188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>3</v>
       </c>
@@ -7086,7 +7200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>3</v>
       </c>
@@ -7098,7 +7212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>3</v>
       </c>
@@ -7110,7 +7224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>3</v>
       </c>
@@ -7122,7 +7236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>4</v>
       </c>
@@ -7134,7 +7248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>4</v>
       </c>
@@ -7146,7 +7260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>4</v>
       </c>
@@ -7158,7 +7272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>4</v>
       </c>
@@ -7170,7 +7284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>4</v>
       </c>
@@ -7182,7 +7296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>4</v>
       </c>
@@ -7194,7 +7308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>5</v>
       </c>
@@ -7206,7 +7320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>5</v>
       </c>
@@ -7218,7 +7332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>5</v>
       </c>
@@ -7230,7 +7344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>5</v>
       </c>
@@ -7242,7 +7356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>5</v>
       </c>
@@ -7254,7 +7368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>5</v>
       </c>
@@ -7266,7 +7380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
